--- a/tests/fixtures/expected_education_results.xlsx
+++ b/tests/fixtures/expected_education_results.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Table_of_content" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="access" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="overage" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="overaged" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="out_of_school" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ece" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="level1" sheetId="6" state="visible" r:id="rId6"/>
@@ -30,10 +30,10 @@
     <t xml:space="preserve">Overall</t>
   </si>
   <si>
-    <t xml:space="preserve">Female / woman</t>
+    <t xml:space="preserve">Girls</t>
   </si>
   <si>
-    <t xml:space="preserve">Male / man</t>
+    <t xml:space="preserve">Boys</t>
   </si>
   <si>
     <t xml:space="preserve">Disruptions</t>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">% of school-aged children whose education was disrupted due to natural hazards</t>
   </si>
   <si>
-    <t xml:space="preserve">% of school-aged children whose education was disrupted due to the school being occupied by displaced persons - Binary</t>
+    <t xml:space="preserve">% of school-aged children whose education was disrupted due to the school being occupied by displaced persons</t>
   </si>
   <si>
     <t xml:space="preserve">Access</t>
@@ -66,19 +66,19 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">edu_school_cycle_d</t>
+    <t xml:space="preserve">Age-Assigned School Cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">ECE</t>
+    <t xml:space="preserve">ECE – 6 years old</t>
   </si>
   <si>
-    <t xml:space="preserve">primary</t>
+    <t xml:space="preserve">primary – 7 to 14 years old</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary First Cycle</t>
+    <t xml:space="preserve">Secondary First Cycle – 15 to 16 years old</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary Second Cycle</t>
+    <t xml:space="preserve">Secondary Second Cycle – 17 to 18 years old</t>
   </si>
   <si>
     <t xml:space="preserve">Do you live in a rural area, urban or peri-urban, or camp like setting?</t>
@@ -213,13 +213,13 @@
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysis of overage learners</t>
+    <t xml:space="preserve">Analysis of overaged learners</t>
   </si>
   <si>
-    <t xml:space="preserve">Overage learners</t>
+    <t xml:space="preserve">Overaged learners</t>
   </si>
   <si>
-    <t xml:space="preserve">% of school-aged children attending school who are at least 2 years above the intended age for grade: primary</t>
+    <t xml:space="preserve">% of school-aged children attending primary school who are at least 2 years above the intended age for their grade</t>
   </si>
   <si>
     <t xml:space="preserve">Analysis of Children Not Accessing Education, OoS</t>
@@ -243,7 +243,7 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Non Access</t>
+    <t xml:space="preserve">% of OoS children</t>
   </si>
   <si>
     <t xml:space="preserve">Early childhood education and early enrolment</t>
@@ -780,7 +780,7 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="str">
-        <f>=HYPERLINK("#'overage'!A1", "Analysis of overage learners")</f>
+        <f>=HYPERLINK("#'overaged'!A1", "Analysis of overaged learners")</f>
       </c>
     </row>
     <row r="4">
@@ -4979,24 +4979,36 @@
       <c r="D7" s="4" t="n">
         <v>43413</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="21" t="n">
+        <v>0.0341289556107571</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>27777</v>
+      </c>
       <c r="G7" s="21" t="n">
         <v>0.476691800635463</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>21087</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="21" t="n">
+        <v>0.0522693266832918</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>10025</v>
+      </c>
       <c r="K7" s="21" t="n">
         <v>0.795305921347308</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>22326</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="5"/>
+      <c r="M7" s="21" t="n">
+        <v>0.0238846327174403</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>17752</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" s="24"/>
@@ -5070,7 +5082,7 @@
         <v>29955</v>
       </c>
       <c r="E11" s="24" t="n">
-        <v>0.00588040024659743</v>
+        <v>0.0232844880732205</v>
       </c>
       <c r="F11" t="n">
         <v>21087</v>
@@ -5082,7 +5094,7 @@
         <v>14508</v>
       </c>
       <c r="I11" s="24" t="n">
-        <v>0.00815184328993795</v>
+        <v>0.0327290424625867</v>
       </c>
       <c r="J11" t="n">
         <v>8219</v>
@@ -5094,7 +5106,7 @@
         <v>15447</v>
       </c>
       <c r="M11" s="24" t="n">
-        <v>0.00442959278831209</v>
+        <v>0.0172520982281629</v>
       </c>
       <c r="N11" s="12" t="n">
         <v>12868</v>
@@ -5114,7 +5126,7 @@
         <v>5880</v>
       </c>
       <c r="E12" s="24" t="n">
-        <v>0.0876424189307625</v>
+        <v>0.139789658194566</v>
       </c>
       <c r="F12" t="n">
         <v>2282</v>
@@ -5126,7 +5138,7 @@
         <v>2855</v>
       </c>
       <c r="I12" s="24" t="n">
-        <v>0.678391959798995</v>
+        <v>0.944723618090452</v>
       </c>
       <c r="J12" t="n">
         <v>199</v>
@@ -5138,7 +5150,7 @@
         <v>3025</v>
       </c>
       <c r="M12" s="24" t="n">
-        <v>0.0312049927988478</v>
+        <v>0.0628900624099856</v>
       </c>
       <c r="N12" s="12" t="n">
         <v>2083</v>
@@ -5158,7 +5170,7 @@
         <v>3178</v>
       </c>
       <c r="E13" s="23" t="n">
-        <v>0.1</v>
+        <v>0.136633663366337</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>1010</v>
@@ -5182,7 +5194,7 @@
         <v>1570</v>
       </c>
       <c r="M13" s="23" t="n">
-        <v>0.0362473347547974</v>
+        <v>0.0756929637526652</v>
       </c>
       <c r="N13" s="13" t="n">
         <v>938</v>
@@ -5227,24 +5239,36 @@
       <c r="D16" s="9" t="n">
         <v>836</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="22" t="n">
+        <v>0.105263157894737</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>323</v>
+      </c>
       <c r="G16" s="22" t="n">
         <v>0.314285714285714</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>385</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="22" t="n">
+        <v>0.115702479338843</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>121</v>
+      </c>
       <c r="K16" s="22" t="n">
         <v>0.447893569844789</v>
       </c>
       <c r="L16" s="9" t="n">
         <v>451</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="22" t="n">
+        <v>0.099009900990099</v>
+      </c>
+      <c r="N16" s="11" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" outlineLevel="1" hidden="0">
       <c r="A17" s="7" t="s">
@@ -5259,24 +5283,36 @@
       <c r="D17" t="n">
         <v>22264</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17"/>
+      <c r="E17" s="24" t="n">
+        <v>0.0333284392893848</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13622</v>
+      </c>
       <c r="G17" s="24" t="n">
         <v>0.448745254190203</v>
       </c>
       <c r="H17" t="n">
         <v>10799</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17"/>
+      <c r="I17" s="24" t="n">
+        <v>0.0468199709964781</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4827</v>
+      </c>
       <c r="K17" s="24" t="n">
         <v>0.767378979502835</v>
       </c>
       <c r="L17" t="n">
         <v>11465</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="12"/>
+      <c r="M17" s="24" t="n">
+        <v>0.025923820352473</v>
+      </c>
+      <c r="N17" s="12" t="n">
+        <v>8795</v>
+      </c>
     </row>
     <row r="18" outlineLevel="1" hidden="0">
       <c r="A18" s="8" t="s">
@@ -5291,24 +5327,36 @@
       <c r="D18" s="10" t="n">
         <v>20313</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="23" t="n">
+        <v>0.0332562174667438</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>13832</v>
+      </c>
       <c r="G18" s="23" t="n">
         <v>0.513480763405029</v>
       </c>
       <c r="H18" s="10" t="n">
         <v>9903</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="23" t="n">
+        <v>0.0559385463856608</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>5077</v>
+      </c>
       <c r="K18" s="23" t="n">
         <v>0.841114313160423</v>
       </c>
       <c r="L18" s="10" t="n">
         <v>10410</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="13"/>
+      <c r="M18" s="23" t="n">
+        <v>0.0201027984009138</v>
+      </c>
+      <c r="N18" s="13" t="n">
+        <v>8755</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="24"/>
@@ -5349,24 +5397,36 @@
       <c r="D21" s="9" t="n">
         <v>1242</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="22" t="n">
+        <v>0.00611995104039168</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>817</v>
+      </c>
       <c r="G21" s="22" t="n">
         <v>0.513911620294599</v>
       </c>
       <c r="H21" s="9" t="n">
         <v>611</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="22" t="n">
+        <v>0.0127388535031847</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>314</v>
+      </c>
       <c r="K21" s="22" t="n">
         <v>0.797147385103011</v>
       </c>
       <c r="L21" s="9" t="n">
         <v>631</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="11"/>
+      <c r="M21" s="22" t="n">
+        <v>0.00198807157057654</v>
+      </c>
+      <c r="N21" s="11" t="n">
+        <v>503</v>
+      </c>
     </row>
     <row r="22" outlineLevel="1" hidden="0">
       <c r="A22" s="7" t="s">
@@ -5381,24 +5441,36 @@
       <c r="D22" t="n">
         <v>1361</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22"/>
+      <c r="E22" s="24" t="n">
+        <v>0.0258717660292463</v>
+      </c>
+      <c r="F22" t="n">
+        <v>889</v>
+      </c>
       <c r="G22" s="24" t="n">
         <v>0.413273001508296</v>
       </c>
       <c r="H22" t="n">
         <v>663</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22"/>
+      <c r="I22" s="24" t="n">
+        <v>0.0583941605839416</v>
+      </c>
+      <c r="J22" t="n">
+        <v>274</v>
+      </c>
       <c r="K22" s="24" t="n">
         <v>0.8810888252149</v>
       </c>
       <c r="L22" t="n">
         <v>698</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="12"/>
+      <c r="M22" s="24" t="n">
+        <v>0.0113821138211382</v>
+      </c>
+      <c r="N22" s="12" t="n">
+        <v>615</v>
+      </c>
     </row>
     <row r="23" outlineLevel="1" hidden="0">
       <c r="A23" s="7" t="s">
@@ -5413,24 +5485,36 @@
       <c r="D23" t="n">
         <v>887</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23"/>
+      <c r="E23" s="24" t="n">
+        <v>0.0309119010819165</v>
+      </c>
+      <c r="F23" t="n">
+        <v>647</v>
+      </c>
       <c r="G23" s="24" t="n">
         <v>0.56</v>
       </c>
       <c r="H23" t="n">
         <v>450</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23"/>
+      <c r="I23" s="24" t="n">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="J23" t="n">
+        <v>252</v>
+      </c>
       <c r="K23" s="24" t="n">
         <v>0.903890160183066</v>
       </c>
       <c r="L23" t="n">
         <v>437</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="12"/>
+      <c r="M23" s="24" t="n">
+        <v>0.0151898734177215</v>
+      </c>
+      <c r="N23" s="12" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="24" outlineLevel="1" hidden="0">
       <c r="A24" s="7" t="s">
@@ -5445,24 +5529,36 @@
       <c r="D24" t="n">
         <v>800</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24"/>
+      <c r="E24" s="24" t="n">
+        <v>0.0575296108291032</v>
+      </c>
+      <c r="F24" t="n">
+        <v>591</v>
+      </c>
       <c r="G24" s="24" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="H24" t="n">
         <v>378</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24"/>
+      <c r="I24" s="24" t="n">
+        <v>0.101851851851852</v>
+      </c>
+      <c r="J24" t="n">
+        <v>216</v>
+      </c>
       <c r="K24" s="24" t="n">
         <v>0.888625592417062</v>
       </c>
       <c r="L24" t="n">
         <v>422</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="12"/>
+      <c r="M24" s="24" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="N24" s="12" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="25" outlineLevel="1" hidden="0">
       <c r="A25" s="7" t="s">
@@ -5477,24 +5573,36 @@
       <c r="D25" t="n">
         <v>801</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25"/>
+      <c r="E25" s="24" t="n">
+        <v>0.0482897384305835</v>
+      </c>
+      <c r="F25" t="n">
+        <v>497</v>
+      </c>
       <c r="G25" s="24" t="n">
         <v>0.425876010781671</v>
       </c>
       <c r="H25" t="n">
         <v>371</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25"/>
+      <c r="I25" s="24" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="J25" t="n">
+        <v>156</v>
+      </c>
       <c r="K25" s="24" t="n">
         <v>0.795348837209302</v>
       </c>
       <c r="L25" t="n">
         <v>430</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="12"/>
+      <c r="M25" s="24" t="n">
+        <v>0.032258064516129</v>
+      </c>
+      <c r="N25" s="12" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="26" outlineLevel="1" hidden="0">
       <c r="A26" s="7" t="s">
@@ -5509,24 +5617,36 @@
       <c r="D26" t="n">
         <v>2507</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26"/>
+      <c r="E26" s="24" t="n">
+        <v>0.0241545893719807</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1656</v>
+      </c>
       <c r="G26" s="24" t="n">
         <v>0.471464019851117</v>
       </c>
       <c r="H26" t="n">
         <v>1209</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26"/>
+      <c r="I26" s="24" t="n">
+        <v>0.0353982300884956</v>
+      </c>
+      <c r="J26" t="n">
+        <v>565</v>
+      </c>
       <c r="K26" s="24" t="n">
         <v>0.840523882896764</v>
       </c>
       <c r="L26" t="n">
         <v>1298</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="12"/>
+      <c r="M26" s="24" t="n">
+        <v>0.0183318056828598</v>
+      </c>
+      <c r="N26" s="12" t="n">
+        <v>1091</v>
+      </c>
     </row>
     <row r="27" outlineLevel="1" hidden="0">
       <c r="A27" s="7" t="s">
@@ -5541,24 +5661,36 @@
       <c r="D27" t="n">
         <v>2758</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27"/>
+      <c r="E27" s="24" t="n">
+        <v>0.0502172863351038</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2071</v>
+      </c>
       <c r="G27" s="24" t="n">
         <v>0.63909224011713</v>
       </c>
       <c r="H27" t="n">
         <v>1366</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27"/>
+      <c r="I27" s="24" t="n">
+        <v>0.0862068965517241</v>
+      </c>
+      <c r="J27" t="n">
+        <v>870</v>
+      </c>
       <c r="K27" s="24" t="n">
         <v>0.862787356321839</v>
       </c>
       <c r="L27" t="n">
         <v>1392</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="12"/>
+      <c r="M27" s="24" t="n">
+        <v>0.0241465445462115</v>
+      </c>
+      <c r="N27" s="12" t="n">
+        <v>1201</v>
+      </c>
     </row>
     <row r="28" outlineLevel="1" hidden="0">
       <c r="A28" s="7" t="s">
@@ -5573,16 +5705,24 @@
       <c r="D28" t="n">
         <v>989</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28"/>
+      <c r="E28" s="24" t="n">
+        <v>0.0180412371134021</v>
+      </c>
+      <c r="F28" t="n">
+        <v>776</v>
+      </c>
       <c r="G28" s="24" t="n">
         <v>0.567164179104478</v>
       </c>
       <c r="H28" t="n">
         <v>469</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28"/>
+      <c r="I28" s="24" t="n">
+        <v>0.053030303030303</v>
+      </c>
+      <c r="J28" t="n">
+        <v>264</v>
+      </c>
       <c r="K28" s="24" t="n">
         <v>0.984615384615385</v>
       </c>
@@ -5605,24 +5745,36 @@
       <c r="D29" t="n">
         <v>1017</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29"/>
+      <c r="E29" s="24" t="n">
+        <v>0.00798934753661784</v>
+      </c>
+      <c r="F29" t="n">
+        <v>751</v>
+      </c>
       <c r="G29" s="24" t="n">
         <v>0.580851063829787</v>
       </c>
       <c r="H29" t="n">
         <v>470</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29"/>
+      <c r="I29" s="24" t="n">
+        <v>0.00738007380073801</v>
+      </c>
+      <c r="J29" t="n">
+        <v>271</v>
+      </c>
       <c r="K29" s="24" t="n">
         <v>0.877513711151737</v>
       </c>
       <c r="L29" t="n">
         <v>547</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="12"/>
+      <c r="M29" s="24" t="n">
+        <v>0.00833333333333333</v>
+      </c>
+      <c r="N29" s="12" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="30" outlineLevel="1" hidden="0">
       <c r="A30" s="7" t="s">
@@ -5637,24 +5789,36 @@
       <c r="D30" t="n">
         <v>1350</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30"/>
+      <c r="E30" s="24" t="n">
+        <v>0.0218579234972678</v>
+      </c>
+      <c r="F30" t="n">
+        <v>915</v>
+      </c>
       <c r="G30" s="24" t="n">
         <v>0.490857946554149</v>
       </c>
       <c r="H30" t="n">
         <v>711</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30"/>
+      <c r="I30" s="24" t="n">
+        <v>0.0315186246418338</v>
+      </c>
+      <c r="J30" t="n">
+        <v>349</v>
+      </c>
       <c r="K30" s="24" t="n">
         <v>0.885758998435055</v>
       </c>
       <c r="L30" t="n">
         <v>639</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="12"/>
+      <c r="M30" s="24" t="n">
+        <v>0.0159010600706714</v>
+      </c>
+      <c r="N30" s="12" t="n">
+        <v>566</v>
+      </c>
     </row>
     <row r="31" outlineLevel="1" hidden="0">
       <c r="A31" s="7" t="s">
@@ -5669,24 +5833,36 @@
       <c r="D31" t="n">
         <v>988</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31"/>
+      <c r="E31" s="24" t="n">
+        <v>0.0233333333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>600</v>
+      </c>
       <c r="G31" s="24" t="n">
         <v>0.478165938864629</v>
       </c>
       <c r="H31" t="n">
         <v>458</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31"/>
+      <c r="I31" s="24" t="n">
+        <v>0.0321100917431193</v>
+      </c>
+      <c r="J31" t="n">
+        <v>218</v>
+      </c>
       <c r="K31" s="24" t="n">
         <v>0.720754716981132</v>
       </c>
       <c r="L31" t="n">
         <v>530</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="12"/>
+      <c r="M31" s="24" t="n">
+        <v>0.0183246073298429</v>
+      </c>
+      <c r="N31" s="12" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="32" outlineLevel="1" hidden="0">
       <c r="A32" s="7" t="s">
@@ -5701,24 +5877,36 @@
       <c r="D32" t="n">
         <v>1895</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32"/>
+      <c r="E32" s="24" t="n">
+        <v>0.0566037735849057</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1325</v>
+      </c>
       <c r="G32" s="24" t="n">
         <v>0.504866180048662</v>
       </c>
       <c r="H32" t="n">
         <v>822</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32"/>
+      <c r="I32" s="24" t="n">
+        <v>0.0578313253012048</v>
+      </c>
+      <c r="J32" t="n">
+        <v>415</v>
+      </c>
       <c r="K32" s="24" t="n">
         <v>0.848089468779124</v>
       </c>
       <c r="L32" t="n">
         <v>1073</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="12"/>
+      <c r="M32" s="24" t="n">
+        <v>0.056043956043956</v>
+      </c>
+      <c r="N32" s="12" t="n">
+        <v>910</v>
+      </c>
     </row>
     <row r="33" outlineLevel="1" hidden="0">
       <c r="A33" s="7" t="s">
@@ -5733,24 +5921,36 @@
       <c r="D33" t="n">
         <v>1031</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33"/>
+      <c r="E33" s="24" t="n">
+        <v>0.0350076103500761</v>
+      </c>
+      <c r="F33" t="n">
+        <v>657</v>
+      </c>
       <c r="G33" s="24" t="n">
         <v>0.461538461538462</v>
       </c>
       <c r="H33" t="n">
         <v>494</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33"/>
+      <c r="I33" s="24" t="n">
+        <v>0.0616740088105727</v>
+      </c>
+      <c r="J33" t="n">
+        <v>227</v>
+      </c>
       <c r="K33" s="24" t="n">
         <v>0.80074487895717</v>
       </c>
       <c r="L33" t="n">
         <v>537</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="12"/>
+      <c r="M33" s="24" t="n">
+        <v>0.0209302325581395</v>
+      </c>
+      <c r="N33" s="12" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="34" outlineLevel="1" hidden="0">
       <c r="A34" s="7" t="s">
@@ -5765,24 +5965,36 @@
       <c r="D34" t="n">
         <v>1773</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34"/>
+      <c r="E34" s="24" t="n">
+        <v>0.0593220338983051</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1062</v>
+      </c>
       <c r="G34" s="24" t="n">
         <v>0.458388375165125</v>
       </c>
       <c r="H34" t="n">
         <v>757</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34"/>
+      <c r="I34" s="24" t="n">
+        <v>0.0835734870317003</v>
+      </c>
+      <c r="J34" t="n">
+        <v>347</v>
+      </c>
       <c r="K34" s="24" t="n">
         <v>0.703740157480315</v>
       </c>
       <c r="L34" t="n">
         <v>1016</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="12"/>
+      <c r="M34" s="24" t="n">
+        <v>0.0475524475524476</v>
+      </c>
+      <c r="N34" s="12" t="n">
+        <v>715</v>
+      </c>
     </row>
     <row r="35" outlineLevel="1" hidden="0">
       <c r="A35" s="7" t="s">
@@ -5797,24 +6009,36 @@
       <c r="D35" t="n">
         <v>1863</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35"/>
+      <c r="E35" s="24" t="n">
+        <v>0.00925925925925926</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1296</v>
+      </c>
       <c r="G35" s="24" t="n">
         <v>0.489106753812636</v>
       </c>
       <c r="H35" t="n">
         <v>918</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35"/>
+      <c r="I35" s="24" t="n">
+        <v>0.0178173719376392</v>
+      </c>
+      <c r="J35" t="n">
+        <v>449</v>
+      </c>
       <c r="K35" s="24" t="n">
         <v>0.896296296296296</v>
       </c>
       <c r="L35" t="n">
         <v>945</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="12"/>
+      <c r="M35" s="24" t="n">
+        <v>0.00472255017709563</v>
+      </c>
+      <c r="N35" s="12" t="n">
+        <v>847</v>
+      </c>
     </row>
     <row r="36" outlineLevel="1" hidden="0">
       <c r="A36" s="7" t="s">
@@ -5829,24 +6053,36 @@
       <c r="D36" t="n">
         <v>672</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36"/>
+      <c r="E36" s="24" t="n">
+        <v>0.0772727272727273</v>
+      </c>
+      <c r="F36" t="n">
+        <v>440</v>
+      </c>
       <c r="G36" s="24" t="n">
         <v>0.581538461538462</v>
       </c>
       <c r="H36" t="n">
         <v>325</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36"/>
+      <c r="I36" s="24" t="n">
+        <v>0.0904255319148936</v>
+      </c>
+      <c r="J36" t="n">
+        <v>188</v>
+      </c>
       <c r="K36" s="24" t="n">
         <v>0.729106628242075</v>
       </c>
       <c r="L36" t="n">
         <v>347</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="12"/>
+      <c r="M36" s="24" t="n">
+        <v>0.0674603174603175</v>
+      </c>
+      <c r="N36" s="12" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="37" outlineLevel="1" hidden="0">
       <c r="A37" s="7" t="s">
@@ -5861,24 +6097,36 @@
       <c r="D37" t="n">
         <v>1495</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37"/>
+      <c r="E37" s="24" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1040</v>
+      </c>
       <c r="G37" s="24" t="n">
         <v>0.585507246376812</v>
       </c>
       <c r="H37" t="n">
         <v>690</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37"/>
+      <c r="I37" s="24" t="n">
+        <v>0.0247524752475248</v>
+      </c>
+      <c r="J37" t="n">
+        <v>404</v>
+      </c>
       <c r="K37" s="24" t="n">
         <v>0.790062111801242</v>
       </c>
       <c r="L37" t="n">
         <v>805</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="12"/>
+      <c r="M37" s="24" t="n">
+        <v>0.00471698113207547</v>
+      </c>
+      <c r="N37" s="12" t="n">
+        <v>636</v>
+      </c>
     </row>
     <row r="38" outlineLevel="1" hidden="0">
       <c r="A38" s="7" t="s">
@@ -5893,24 +6141,36 @@
       <c r="D38" t="n">
         <v>1141</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38"/>
+      <c r="E38" s="24" t="n">
+        <v>0.0213414634146341</v>
+      </c>
+      <c r="F38" t="n">
+        <v>656</v>
+      </c>
       <c r="G38" s="24" t="n">
         <v>0.413309982486865</v>
       </c>
       <c r="H38" t="n">
         <v>571</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38"/>
+      <c r="I38" s="24" t="n">
+        <v>0.0296610169491525</v>
+      </c>
+      <c r="J38" t="n">
+        <v>236</v>
+      </c>
       <c r="K38" s="24" t="n">
         <v>0.736842105263158</v>
       </c>
       <c r="L38" t="n">
         <v>570</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="12"/>
+      <c r="M38" s="24" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="N38" s="12" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="39" outlineLevel="1" hidden="0">
       <c r="A39" s="7" t="s">
@@ -5925,24 +6185,36 @@
       <c r="D39" t="n">
         <v>1163</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39"/>
+      <c r="E39" s="24" t="n">
+        <v>0.0228571428571429</v>
+      </c>
+      <c r="F39" t="n">
+        <v>700</v>
+      </c>
       <c r="G39" s="24" t="n">
         <v>0.433613445378151</v>
       </c>
       <c r="H39" t="n">
         <v>595</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39"/>
+      <c r="I39" s="24" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="J39" t="n">
+        <v>255</v>
+      </c>
       <c r="K39" s="24" t="n">
         <v>0.786971830985915</v>
       </c>
       <c r="L39" t="n">
         <v>568</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="12"/>
+      <c r="M39" s="24" t="n">
+        <v>0.0247191011235955</v>
+      </c>
+      <c r="N39" s="12" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="40" outlineLevel="1" hidden="0">
       <c r="A40" s="7" t="s">
@@ -5957,24 +6229,36 @@
       <c r="D40" t="n">
         <v>835</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40"/>
+      <c r="E40" s="24" t="n">
+        <v>0.0407407407407407</v>
+      </c>
+      <c r="F40" t="n">
+        <v>540</v>
+      </c>
       <c r="G40" s="24" t="n">
         <v>0.50765306122449</v>
       </c>
       <c r="H40" t="n">
         <v>392</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40"/>
+      <c r="I40" s="24" t="n">
+        <v>0.0753768844221106</v>
+      </c>
+      <c r="J40" t="n">
+        <v>199</v>
+      </c>
       <c r="K40" s="24" t="n">
         <v>0.769751693002257</v>
       </c>
       <c r="L40" t="n">
         <v>443</v>
       </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="12"/>
+      <c r="M40" s="24" t="n">
+        <v>0.0205278592375367</v>
+      </c>
+      <c r="N40" s="12" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="41" outlineLevel="1" hidden="0">
       <c r="A41" s="7" t="s">
@@ -5989,24 +6273,36 @@
       <c r="D41" t="n">
         <v>2192</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41"/>
+      <c r="E41" s="24" t="n">
+        <v>0.0300859598853868</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1396</v>
+      </c>
       <c r="G41" s="24" t="n">
         <v>0.489497716894977</v>
       </c>
       <c r="H41" t="n">
         <v>1095</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41"/>
+      <c r="I41" s="24" t="n">
+        <v>0.0522388059701493</v>
+      </c>
+      <c r="J41" t="n">
+        <v>536</v>
+      </c>
       <c r="K41" s="24" t="n">
         <v>0.783956244302644</v>
       </c>
       <c r="L41" t="n">
         <v>1097</v>
       </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="12"/>
+      <c r="M41" s="24" t="n">
+        <v>0.0162790697674419</v>
+      </c>
+      <c r="N41" s="12" t="n">
+        <v>860</v>
+      </c>
     </row>
     <row r="42" outlineLevel="1" hidden="0">
       <c r="A42" s="7" t="s">
@@ -6021,24 +6317,36 @@
       <c r="D42" t="n">
         <v>1467</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42"/>
+      <c r="E42" s="24" t="n">
+        <v>0.0414364640883978</v>
+      </c>
+      <c r="F42" t="n">
+        <v>724</v>
+      </c>
       <c r="G42" s="24" t="n">
         <v>0.362637362637363</v>
       </c>
       <c r="H42" t="n">
         <v>728</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42"/>
+      <c r="I42" s="24" t="n">
+        <v>0.0757575757575758</v>
+      </c>
+      <c r="J42" t="n">
+        <v>264</v>
+      </c>
       <c r="K42" s="24" t="n">
         <v>0.622462787550744</v>
       </c>
       <c r="L42" t="n">
         <v>739</v>
       </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="12"/>
+      <c r="M42" s="24" t="n">
+        <v>0.0217391304347826</v>
+      </c>
+      <c r="N42" s="12" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="43" outlineLevel="1" hidden="0">
       <c r="A43" s="7" t="s">
@@ -6053,24 +6361,36 @@
       <c r="D43" t="n">
         <v>1055</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43"/>
+      <c r="E43" s="24" t="n">
+        <v>0.0293724966622163</v>
+      </c>
+      <c r="F43" t="n">
+        <v>749</v>
+      </c>
       <c r="G43" s="24" t="n">
         <v>0.553571428571428</v>
       </c>
       <c r="H43" t="n">
         <v>448</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43"/>
+      <c r="I43" s="24" t="n">
+        <v>0.0564516129032258</v>
+      </c>
+      <c r="J43" t="n">
+        <v>248</v>
+      </c>
       <c r="K43" s="24" t="n">
         <v>0.825370675453048</v>
       </c>
       <c r="L43" t="n">
         <v>607</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="12"/>
+      <c r="M43" s="24" t="n">
+        <v>0.0159680638722555</v>
+      </c>
+      <c r="N43" s="12" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="44" outlineLevel="1" hidden="0">
       <c r="A44" s="7" t="s">
@@ -6085,24 +6405,36 @@
       <c r="D44" t="n">
         <v>951</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44"/>
+      <c r="E44" s="24" t="n">
+        <v>0.0313479623824451</v>
+      </c>
+      <c r="F44" t="n">
+        <v>638</v>
+      </c>
       <c r="G44" s="24" t="n">
         <v>0.506024096385542</v>
       </c>
       <c r="H44" t="n">
         <v>498</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44"/>
+      <c r="I44" s="24" t="n">
+        <v>0.0436507936507936</v>
+      </c>
+      <c r="J44" t="n">
+        <v>252</v>
+      </c>
       <c r="K44" s="24" t="n">
         <v>0.852097130242826</v>
       </c>
       <c r="L44" t="n">
         <v>453</v>
       </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="12"/>
+      <c r="M44" s="24" t="n">
+        <v>0.0233160621761658</v>
+      </c>
+      <c r="N44" s="12" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="45" outlineLevel="1" hidden="0">
       <c r="A45" s="7" t="s">
@@ -6117,24 +6449,36 @@
       <c r="D45" t="n">
         <v>1014</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45"/>
+      <c r="E45" s="24" t="n">
+        <v>0.0491071428571429</v>
+      </c>
+      <c r="F45" t="n">
+        <v>448</v>
+      </c>
       <c r="G45" s="24" t="n">
         <v>0.262385321100917</v>
       </c>
       <c r="H45" t="n">
         <v>545</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45"/>
+      <c r="I45" s="24" t="n">
+        <v>0.0571428571428571</v>
+      </c>
+      <c r="J45" t="n">
+        <v>140</v>
+      </c>
       <c r="K45" s="24" t="n">
         <v>0.656716417910448</v>
       </c>
       <c r="L45" t="n">
         <v>469</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="12"/>
+      <c r="M45" s="24" t="n">
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="N45" s="12" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="46" outlineLevel="1" hidden="0">
       <c r="A46" s="7" t="s">
@@ -6149,24 +6493,36 @@
       <c r="D46" t="n">
         <v>1079</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46"/>
+      <c r="E46" s="24" t="n">
+        <v>0.0968229954614221</v>
+      </c>
+      <c r="F46" t="n">
+        <v>661</v>
+      </c>
       <c r="G46" s="24" t="n">
         <v>0.443820224719101</v>
       </c>
       <c r="H46" t="n">
         <v>534</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46"/>
+      <c r="I46" s="24" t="n">
+        <v>0.113924050632911</v>
+      </c>
+      <c r="J46" t="n">
+        <v>237</v>
+      </c>
       <c r="K46" s="24" t="n">
         <v>0.777981651376147</v>
       </c>
       <c r="L46" t="n">
         <v>545</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="12"/>
+      <c r="M46" s="24" t="n">
+        <v>0.0872641509433962</v>
+      </c>
+      <c r="N46" s="12" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="47" outlineLevel="1" hidden="0">
       <c r="A47" s="7" t="s">
@@ -6181,24 +6537,36 @@
       <c r="D47" t="n">
         <v>989</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47"/>
+      <c r="E47" s="24" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+      <c r="F47" t="n">
+        <v>468</v>
+      </c>
       <c r="G47" s="24" t="n">
         <v>0.267223382045929</v>
       </c>
       <c r="H47" t="n">
         <v>479</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47"/>
+      <c r="I47" s="24" t="n">
+        <v>0.047244094488189</v>
+      </c>
+      <c r="J47" t="n">
+        <v>127</v>
+      </c>
       <c r="K47" s="24" t="n">
         <v>0.668627450980392</v>
       </c>
       <c r="L47" t="n">
         <v>510</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="12"/>
+      <c r="M47" s="24" t="n">
+        <v>0.0175953079178886</v>
+      </c>
+      <c r="N47" s="12" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="48" outlineLevel="1" hidden="0">
       <c r="A48" s="7" t="s">
@@ -6213,24 +6581,36 @@
       <c r="D48" t="n">
         <v>1370</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48"/>
+      <c r="E48" s="24" t="n">
+        <v>0.0446927374301676</v>
+      </c>
+      <c r="F48" t="n">
+        <v>716</v>
+      </c>
       <c r="G48" s="24" t="n">
         <v>0.397278911564626</v>
       </c>
       <c r="H48" t="n">
         <v>735</v>
       </c>
-      <c r="I48" s="24"/>
-      <c r="J48"/>
+      <c r="I48" s="24" t="n">
+        <v>0.0761245674740484</v>
+      </c>
+      <c r="J48" t="n">
+        <v>289</v>
+      </c>
       <c r="K48" s="24" t="n">
         <v>0.67244094488189</v>
       </c>
       <c r="L48" t="n">
         <v>635</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="12"/>
+      <c r="M48" s="24" t="n">
+        <v>0.0234192037470726</v>
+      </c>
+      <c r="N48" s="12" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="49" outlineLevel="1" hidden="0">
       <c r="A49" s="7" t="s">
@@ -6245,24 +6625,36 @@
       <c r="D49" t="n">
         <v>1688</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49"/>
+      <c r="E49" s="24" t="n">
+        <v>0.0189359783588819</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1109</v>
+      </c>
       <c r="G49" s="24" t="n">
         <v>0.511389521640091</v>
       </c>
       <c r="H49" t="n">
         <v>878</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="J49"/>
+      <c r="I49" s="24" t="n">
+        <v>0.022271714922049</v>
+      </c>
+      <c r="J49" t="n">
+        <v>449</v>
+      </c>
       <c r="K49" s="24" t="n">
         <v>0.814814814814815</v>
       </c>
       <c r="L49" t="n">
         <v>810</v>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="12"/>
+      <c r="M49" s="24" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="N49" s="12" t="n">
+        <v>660</v>
+      </c>
     </row>
     <row r="50" outlineLevel="1" hidden="0">
       <c r="A50" s="7" t="s">
@@ -6277,24 +6669,36 @@
       <c r="D50" t="n">
         <v>992</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50"/>
+      <c r="E50" s="24" t="n">
+        <v>0.0230905861456483</v>
+      </c>
+      <c r="F50" t="n">
+        <v>563</v>
+      </c>
       <c r="G50" s="24" t="n">
         <v>0.361884368308351</v>
       </c>
       <c r="H50" t="n">
         <v>467</v>
       </c>
-      <c r="I50" s="24"/>
-      <c r="J50"/>
+      <c r="I50" s="24" t="n">
+        <v>0.0355029585798817</v>
+      </c>
+      <c r="J50" t="n">
+        <v>169</v>
+      </c>
       <c r="K50" s="24" t="n">
         <v>0.750476190476191</v>
       </c>
       <c r="L50" t="n">
         <v>525</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="12"/>
+      <c r="M50" s="24" t="n">
+        <v>0.0177664974619289</v>
+      </c>
+      <c r="N50" s="12" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="51" outlineLevel="1" hidden="0">
       <c r="A51" s="7" t="s">
@@ -6309,24 +6713,36 @@
       <c r="D51" t="n">
         <v>1016</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51"/>
+      <c r="E51" s="24" t="n">
+        <v>0.0479876160990712</v>
+      </c>
+      <c r="F51" t="n">
+        <v>646</v>
+      </c>
       <c r="G51" s="24" t="n">
         <v>0.517311608961303</v>
       </c>
       <c r="H51" t="n">
         <v>491</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="J51"/>
+      <c r="I51" s="24" t="n">
+        <v>0.0708661417322835</v>
+      </c>
+      <c r="J51" t="n">
+        <v>254</v>
+      </c>
       <c r="K51" s="24" t="n">
         <v>0.746666666666667</v>
       </c>
       <c r="L51" t="n">
         <v>525</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="12"/>
+      <c r="M51" s="24" t="n">
+        <v>0.0331632653061224</v>
+      </c>
+      <c r="N51" s="12" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="52" outlineLevel="1" hidden="0">
       <c r="A52" s="7" t="s">
@@ -6341,24 +6757,36 @@
       <c r="D52" t="n">
         <v>913</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52"/>
+      <c r="E52" s="24" t="n">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="F52" t="n">
+        <v>450</v>
+      </c>
       <c r="G52" s="24" t="n">
         <v>0.316455696202532</v>
       </c>
       <c r="H52" t="n">
         <v>474</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52"/>
+      <c r="I52" s="24" t="n">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="J52" t="n">
+        <v>150</v>
+      </c>
       <c r="K52" s="24" t="n">
         <v>0.683371298405467</v>
       </c>
       <c r="L52" t="n">
         <v>439</v>
       </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="12"/>
+      <c r="M52" s="24" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="N52" s="12" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="53" outlineLevel="1" hidden="0">
       <c r="A53" s="7" t="s">
@@ -6373,24 +6801,36 @@
       <c r="D53" t="n">
         <v>1015</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53"/>
+      <c r="E53" s="24" t="n">
+        <v>0.0412926391382406</v>
+      </c>
+      <c r="F53" t="n">
+        <v>557</v>
+      </c>
       <c r="G53" s="24" t="n">
         <v>0.385281385281385</v>
       </c>
       <c r="H53" t="n">
         <v>462</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53"/>
+      <c r="I53" s="24" t="n">
+        <v>0.0786516853932584</v>
+      </c>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
       <c r="K53" s="24" t="n">
         <v>0.685352622061483</v>
       </c>
       <c r="L53" t="n">
         <v>553</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="12"/>
+      <c r="M53" s="24" t="n">
+        <v>0.0237467018469657</v>
+      </c>
+      <c r="N53" s="12" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="54" outlineLevel="1" hidden="0">
       <c r="A54" s="8" t="s">
@@ -6405,24 +6845,36 @@
       <c r="D54" s="10" t="n">
         <v>1104</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="23" t="n">
+        <v>0.0206611570247934</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>726</v>
+      </c>
       <c r="G54" s="23" t="n">
         <v>0.49343339587242</v>
       </c>
       <c r="H54" s="10" t="n">
         <v>533</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="10"/>
+      <c r="I54" s="23" t="n">
+        <v>0.0304182509505703</v>
+      </c>
+      <c r="J54" s="10" t="n">
+        <v>263</v>
+      </c>
       <c r="K54" s="23" t="n">
         <v>0.810858143607706</v>
       </c>
       <c r="L54" s="10" t="n">
         <v>571</v>
       </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="13"/>
+      <c r="M54" s="23" t="n">
+        <v>0.0151187904967603</v>
+      </c>
+      <c r="N54" s="13" t="n">
+        <v>463</v>
+      </c>
     </row>
     <row r="55">
       <c r="C55" s="24"/>
@@ -6463,24 +6915,36 @@
       <c r="D57" s="9" t="n">
         <v>5394</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="9"/>
+      <c r="E57" s="22" t="n">
+        <v>0.0296273671350031</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>3274</v>
+      </c>
       <c r="G57" s="22" t="n">
         <v>0.465089660434949</v>
       </c>
       <c r="H57" s="9" t="n">
         <v>2621</v>
       </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="9"/>
+      <c r="I57" s="22" t="n">
+        <v>0.0404624277456647</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>1211</v>
+      </c>
       <c r="K57" s="22" t="n">
         <v>0.744320230796971</v>
       </c>
       <c r="L57" s="9" t="n">
         <v>2773</v>
       </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="11"/>
+      <c r="M57" s="22" t="n">
+        <v>0.0232670867668444</v>
+      </c>
+      <c r="N57" s="11" t="n">
+        <v>2063</v>
+      </c>
     </row>
     <row r="58" outlineLevel="1" hidden="0">
       <c r="A58" s="7" t="s">
@@ -6495,24 +6959,36 @@
       <c r="D58" t="n">
         <v>3153</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58"/>
+      <c r="E58" s="24" t="n">
+        <v>0.0361228175797712</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1661</v>
+      </c>
       <c r="G58" s="24" t="n">
         <v>0.378447722899294</v>
       </c>
       <c r="H58" t="n">
         <v>1559</v>
       </c>
-      <c r="I58" s="24"/>
-      <c r="J58"/>
+      <c r="I58" s="24" t="n">
+        <v>0.0425894378194208</v>
+      </c>
+      <c r="J58" t="n">
+        <v>587</v>
+      </c>
       <c r="K58" s="24" t="n">
         <v>0.673776662484316</v>
       </c>
       <c r="L58" t="n">
         <v>1594</v>
       </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="12"/>
+      <c r="M58" s="24" t="n">
+        <v>0.0325884543761639</v>
+      </c>
+      <c r="N58" s="12" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="59" outlineLevel="1" hidden="0">
       <c r="A59" s="7" t="s">
@@ -6527,24 +7003,36 @@
       <c r="D59" t="n">
         <v>33600</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59"/>
+      <c r="E59" s="24" t="n">
+        <v>0.0323611486182375</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22218</v>
+      </c>
       <c r="G59" s="24" t="n">
         <v>0.491317108964168</v>
       </c>
       <c r="H59" t="n">
         <v>16354</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59"/>
+      <c r="I59" s="24" t="n">
+        <v>0.0537473500436463</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8019</v>
+      </c>
       <c r="K59" s="24" t="n">
         <v>0.823495303258727</v>
       </c>
       <c r="L59" t="n">
         <v>17246</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="12"/>
+      <c r="M59" s="24" t="n">
+        <v>0.0202831185294739</v>
+      </c>
+      <c r="N59" s="12" t="n">
+        <v>14199</v>
+      </c>
     </row>
     <row r="60" outlineLevel="1" hidden="0">
       <c r="A60" s="8" t="s">
@@ -6559,24 +7047,36 @@
       <c r="D60" s="10" t="n">
         <v>1266</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="23" t="n">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>624</v>
+      </c>
       <c r="G60" s="23" t="n">
         <v>0.376130198915009</v>
       </c>
       <c r="H60" s="10" t="n">
         <v>553</v>
       </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="10"/>
+      <c r="I60" s="23" t="n">
+        <v>0.0913461538461539</v>
+      </c>
+      <c r="J60" s="10" t="n">
+        <v>208</v>
+      </c>
       <c r="K60" s="23" t="n">
         <v>0.583450210378682</v>
       </c>
       <c r="L60" s="10" t="n">
         <v>713</v>
       </c>
-      <c r="M60" s="23"/>
-      <c r="N60" s="13"/>
+      <c r="M60" s="23" t="n">
+        <v>0.127403846153846</v>
+      </c>
+      <c r="N60" s="13" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="61">
       <c r="C61" s="24"/>
@@ -12772,10 +13272,10 @@
         <v>4399</v>
       </c>
       <c r="G7" s="31" t="n">
-        <v>0.0932126696832579</v>
+        <v>0.748806546942487</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1105</v>
+        <v>4399</v>
       </c>
       <c r="I7" s="31" t="n">
         <v>0.725425330812854</v>
@@ -12790,10 +13290,10 @@
         <v>2116</v>
       </c>
       <c r="M7" s="31" t="n">
-        <v>0.083596214511041</v>
+        <v>0.700378071833648</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>634</v>
+        <v>2116</v>
       </c>
       <c r="O7" s="31" t="n">
         <v>0.815674255691769</v>
@@ -12808,10 +13308,10 @@
         <v>2283</v>
       </c>
       <c r="S7" s="31" t="n">
-        <v>0.106157112526539</v>
+        <v>0.793692509855453</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>471</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="8">
@@ -12869,10 +13369,10 @@
         <v>126</v>
       </c>
       <c r="G10" s="32" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="H10" s="9" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="I10" s="32" t="n">
         <v>0.380952380952381</v>
@@ -12887,10 +13387,10 @@
         <v>63</v>
       </c>
       <c r="M10" s="32" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O10" s="32" t="n">
         <v>0.492063492063492</v>
@@ -12905,10 +13405,10 @@
         <v>63</v>
       </c>
       <c r="S10" s="32" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" outlineLevel="1" hidden="0">
@@ -12931,10 +13431,10 @@
         <v>2302</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.0965630114566285</v>
+        <v>0.734578627280626</v>
       </c>
       <c r="H11" t="n">
-        <v>611</v>
+        <v>2302</v>
       </c>
       <c r="I11" s="34" t="n">
         <v>0.706363636363636</v>
@@ -12949,10 +13449,10 @@
         <v>1100</v>
       </c>
       <c r="M11" s="34" t="n">
-        <v>0.0926966292134832</v>
+        <v>0.676363636363636</v>
       </c>
       <c r="N11" t="n">
-        <v>356</v>
+        <v>1100</v>
       </c>
       <c r="O11" s="34" t="n">
         <v>0.809642560266002</v>
@@ -12967,10 +13467,10 @@
         <v>1202</v>
       </c>
       <c r="S11" s="34" t="n">
-        <v>0.101960784313725</v>
+        <v>0.787853577371048</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>255</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="12" outlineLevel="1" hidden="0">
@@ -12993,10 +13493,10 @@
         <v>1971</v>
       </c>
       <c r="G12" s="33" t="n">
-        <v>0.0954653937947494</v>
+        <v>0.787417554540842</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>419</v>
+        <v>1971</v>
       </c>
       <c r="I12" s="33" t="n">
         <v>0.770199370409234</v>
@@ -13011,10 +13511,10 @@
         <v>953</v>
       </c>
       <c r="M12" s="33" t="n">
-        <v>0.0720338983050847</v>
+        <v>0.752360965372508</v>
       </c>
       <c r="N12" s="10" t="n">
-        <v>236</v>
+        <v>953</v>
       </c>
       <c r="O12" s="33" t="n">
         <v>0.842829076620825</v>
@@ -13029,10 +13529,10 @@
         <v>1018</v>
       </c>
       <c r="S12" s="33" t="n">
-        <v>0.12568306010929</v>
+        <v>0.820235756385069</v>
       </c>
       <c r="T12" s="13" t="n">
-        <v>183</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="13">
@@ -13090,10 +13590,10 @@
         <v>133</v>
       </c>
       <c r="G15" s="32" t="n">
-        <v>0.142857142857143</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="H15" s="9" t="n">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="I15" s="32" t="n">
         <v>0.803030303030303</v>
@@ -13108,10 +13608,10 @@
         <v>66</v>
       </c>
       <c r="M15" s="32" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="N15" s="9" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O15" s="32" t="n">
         <v>0.835820895522388</v>
@@ -13126,10 +13626,10 @@
         <v>67</v>
       </c>
       <c r="S15" s="32" t="n">
-        <v>0.214285714285714</v>
+        <v>0.791044776119403</v>
       </c>
       <c r="T15" s="11" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" outlineLevel="1" hidden="0">
@@ -13152,10 +13652,10 @@
         <v>112</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.037037037037037</v>
+        <v>0.758928571428571</v>
       </c>
       <c r="H16" t="n">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>0.717391304347826</v>
@@ -13170,10 +13670,10 @@
         <v>46</v>
       </c>
       <c r="M16" s="34" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="N16" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O16" s="34" t="n">
         <v>0.803030303030303</v>
@@ -13187,8 +13687,12 @@
       <c r="R16" t="n">
         <v>66</v>
       </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="12"/>
+      <c r="S16" s="34" t="n">
+        <v>0.803030303030303</v>
+      </c>
+      <c r="T16" s="12" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" outlineLevel="1" hidden="0">
       <c r="A17" s="7" t="s">
@@ -13209,8 +13713,12 @@
       <c r="F17" t="n">
         <v>68</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17"/>
+      <c r="G17" s="34" t="n">
+        <v>0.897058823529412</v>
+      </c>
+      <c r="H17" t="n">
+        <v>68</v>
+      </c>
       <c r="I17" s="34" t="n">
         <v>0.882352941176471</v>
       </c>
@@ -13223,8 +13731,12 @@
       <c r="L17" t="n">
         <v>34</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17"/>
+      <c r="M17" s="34" t="n">
+        <v>0.882352941176471</v>
+      </c>
+      <c r="N17" t="n">
+        <v>34</v>
+      </c>
       <c r="O17" s="34" t="n">
         <v>0.911764705882353</v>
       </c>
@@ -13237,8 +13749,12 @@
       <c r="R17" t="n">
         <v>34</v>
       </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="12"/>
+      <c r="S17" s="34" t="n">
+        <v>0.911764705882353</v>
+      </c>
+      <c r="T17" s="12" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" outlineLevel="1" hidden="0">
       <c r="A18" s="7" t="s">
@@ -13260,10 +13776,10 @@
         <v>68</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.0625</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>0.666666666666667</v>
@@ -13278,10 +13794,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="34" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O18" s="34" t="n">
         <v>0.868421052631579</v>
@@ -13295,8 +13811,12 @@
       <c r="R18" t="n">
         <v>38</v>
       </c>
-      <c r="S18" s="34"/>
-      <c r="T18" s="12"/>
+      <c r="S18" s="34" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="T18" s="12" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" outlineLevel="1" hidden="0">
       <c r="A19" s="7" t="s">
@@ -13317,8 +13837,12 @@
       <c r="F19" t="n">
         <v>65</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19"/>
+      <c r="G19" s="34" t="n">
+        <v>0.707692307692308</v>
+      </c>
+      <c r="H19" t="n">
+        <v>65</v>
+      </c>
       <c r="I19" s="34" t="n">
         <v>0.645161290322581</v>
       </c>
@@ -13331,8 +13855,12 @@
       <c r="L19" t="n">
         <v>31</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19"/>
+      <c r="M19" s="34" t="n">
+        <v>0.645161290322581</v>
+      </c>
+      <c r="N19" t="n">
+        <v>31</v>
+      </c>
       <c r="O19" s="34" t="n">
         <v>0.764705882352941</v>
       </c>
@@ -13345,8 +13873,12 @@
       <c r="R19" t="n">
         <v>34</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="12"/>
+      <c r="S19" s="34" t="n">
+        <v>0.764705882352941</v>
+      </c>
+      <c r="T19" s="12" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" outlineLevel="1" hidden="0">
       <c r="A20" s="7" t="s">
@@ -13368,10 +13900,10 @@
         <v>222</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.0731707317073171</v>
+        <v>0.815315315315315</v>
       </c>
       <c r="H20" t="n">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="I20" s="34" t="n">
         <v>0.808080808080808</v>
@@ -13386,10 +13918,10 @@
         <v>99</v>
       </c>
       <c r="M20" s="34" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="N20" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="O20" s="34" t="n">
         <v>0.845528455284553</v>
@@ -13404,10 +13936,10 @@
         <v>123</v>
       </c>
       <c r="S20" s="34" t="n">
-        <v>0.05</v>
+        <v>0.83739837398374</v>
       </c>
       <c r="T20" s="12" t="n">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" outlineLevel="1" hidden="0">
@@ -13430,10 +13962,10 @@
         <v>271</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.878228782287823</v>
       </c>
       <c r="H21" t="n">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="I21" s="34" t="n">
         <v>0.866197183098592</v>
@@ -13448,10 +13980,10 @@
         <v>142</v>
       </c>
       <c r="M21" s="34" t="n">
-        <v>0.136363636363636</v>
+        <v>0.845070422535211</v>
       </c>
       <c r="N21" t="n">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="O21" s="34" t="n">
         <v>0.914728682170543</v>
@@ -13465,8 +13997,12 @@
       <c r="R21" t="n">
         <v>129</v>
       </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="12"/>
+      <c r="S21" s="34" t="n">
+        <v>0.914728682170543</v>
+      </c>
+      <c r="T21" s="12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" outlineLevel="1" hidden="0">
       <c r="A22" s="7" t="s">
@@ -13487,8 +14023,12 @@
       <c r="F22" t="n">
         <v>84</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22"/>
+      <c r="G22" s="34" t="n">
+        <v>0.988095238095238</v>
+      </c>
+      <c r="H22" t="n">
+        <v>84</v>
+      </c>
       <c r="I22" s="34" t="n">
         <v>0.977777777777778</v>
       </c>
@@ -13501,8 +14041,12 @@
       <c r="L22" t="n">
         <v>45</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22"/>
+      <c r="M22" s="34" t="n">
+        <v>0.977777777777778</v>
+      </c>
+      <c r="N22" t="n">
+        <v>45</v>
+      </c>
       <c r="O22" s="34" t="n">
         <v>1</v>
       </c>
@@ -13515,8 +14059,12 @@
       <c r="R22" t="n">
         <v>39</v>
       </c>
-      <c r="S22" s="34"/>
-      <c r="T22" s="12"/>
+      <c r="S22" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" outlineLevel="1" hidden="0">
       <c r="A23" s="7" t="s">
@@ -13538,10 +14086,10 @@
         <v>117</v>
       </c>
       <c r="G23" s="34" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I23" s="34" t="n">
         <v>0.836065573770492</v>
@@ -13556,10 +14104,10 @@
         <v>61</v>
       </c>
       <c r="M23" s="34" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="O23" s="34" t="n">
         <v>0.839285714285714</v>
@@ -13574,10 +14122,10 @@
         <v>56</v>
       </c>
       <c r="S23" s="34" t="n">
-        <v>0.1</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="T23" s="12" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" outlineLevel="1" hidden="0">
@@ -13600,10 +14148,10 @@
         <v>104</v>
       </c>
       <c r="G24" s="34" t="n">
-        <v>0.238095238095238</v>
+        <v>0.798076923076923</v>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I24" s="34" t="n">
         <v>0.901960784313726</v>
@@ -13618,10 +14166,10 @@
         <v>51</v>
       </c>
       <c r="M24" s="34" t="n">
-        <v>0.166666666666667</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="O24" s="34" t="n">
         <v>0.792452830188679</v>
@@ -13636,10 +14184,10 @@
         <v>53</v>
       </c>
       <c r="S24" s="34" t="n">
-        <v>0.266666666666667</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="T24" s="12" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" outlineLevel="1" hidden="0">
@@ -13661,8 +14209,12 @@
       <c r="F25" t="n">
         <v>107</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25"/>
+      <c r="G25" s="34" t="n">
+        <v>0.803738317757009</v>
+      </c>
+      <c r="H25" t="n">
+        <v>107</v>
+      </c>
       <c r="I25" s="34" t="n">
         <v>0.839285714285714</v>
       </c>
@@ -13675,8 +14227,12 @@
       <c r="L25" t="n">
         <v>56</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25"/>
+      <c r="M25" s="34" t="n">
+        <v>0.839285714285714</v>
+      </c>
+      <c r="N25" t="n">
+        <v>56</v>
+      </c>
       <c r="O25" s="34" t="n">
         <v>0.764705882352941</v>
       </c>
@@ -13689,8 +14245,12 @@
       <c r="R25" t="n">
         <v>51</v>
       </c>
-      <c r="S25" s="34"/>
-      <c r="T25" s="12"/>
+      <c r="S25" s="34" t="n">
+        <v>0.764705882352941</v>
+      </c>
+      <c r="T25" s="12" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" outlineLevel="1" hidden="0">
       <c r="A26" s="7" t="s">
@@ -13712,10 +14272,10 @@
         <v>251</v>
       </c>
       <c r="G26" s="34" t="n">
-        <v>0.354838709677419</v>
+        <v>0.752988047808765</v>
       </c>
       <c r="H26" t="n">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="I26" s="34" t="n">
         <v>0.700934579439252</v>
@@ -13730,10 +14290,10 @@
         <v>107</v>
       </c>
       <c r="M26" s="34" t="n">
-        <v>0.255813953488372</v>
+        <v>0.598130841121495</v>
       </c>
       <c r="N26" t="n">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="O26" s="34" t="n">
         <v>0.944444444444444</v>
@@ -13748,10 +14308,10 @@
         <v>144</v>
       </c>
       <c r="S26" s="34" t="n">
-        <v>0.578947368421053</v>
+        <v>0.868055555555555</v>
       </c>
       <c r="T26" s="12" t="n">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" outlineLevel="1" hidden="0">
@@ -13774,10 +14334,10 @@
         <v>116</v>
       </c>
       <c r="G27" s="34" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="H27" t="n">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="I27" s="34" t="n">
         <v>0.722222222222222</v>
@@ -13791,8 +14351,12 @@
       <c r="L27" t="n">
         <v>54</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27"/>
+      <c r="M27" s="34" t="n">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="N27" t="n">
+        <v>54</v>
+      </c>
       <c r="O27" s="34" t="n">
         <v>0.80952380952381</v>
       </c>
@@ -13806,10 +14370,10 @@
         <v>62</v>
       </c>
       <c r="S27" s="34" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.790322580645161</v>
       </c>
       <c r="T27" s="12" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" outlineLevel="1" hidden="0">
@@ -13832,10 +14396,10 @@
         <v>291</v>
       </c>
       <c r="G28" s="34" t="n">
-        <v>0.12962962962963</v>
+        <v>0.628865979381443</v>
       </c>
       <c r="H28" t="n">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="I28" s="34" t="n">
         <v>0.589928057553957</v>
@@ -13850,10 +14414,10 @@
         <v>139</v>
       </c>
       <c r="M28" s="34" t="n">
-        <v>0.136363636363636</v>
+        <v>0.525179856115108</v>
       </c>
       <c r="N28" t="n">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="O28" s="34" t="n">
         <v>0.756578947368421</v>
@@ -13868,10 +14432,10 @@
         <v>152</v>
       </c>
       <c r="S28" s="34" t="n">
-        <v>0.119047619047619</v>
+        <v>0.723684210526316</v>
       </c>
       <c r="T28" s="12" t="n">
-        <v>42</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" outlineLevel="1" hidden="0">
@@ -13894,10 +14458,10 @@
         <v>190</v>
       </c>
       <c r="G29" s="34" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.878947368421053</v>
       </c>
       <c r="H29" t="n">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I29" s="34" t="n">
         <v>0.884615384615385</v>
@@ -13912,10 +14476,10 @@
         <v>78</v>
       </c>
       <c r="M29" s="34" t="n">
-        <v>0.1</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="O29" s="34" t="n">
         <v>0.883928571428571</v>
@@ -13929,8 +14493,12 @@
       <c r="R29" t="n">
         <v>112</v>
       </c>
-      <c r="S29" s="34"/>
-      <c r="T29" s="12"/>
+      <c r="S29" s="34" t="n">
+        <v>0.883928571428571</v>
+      </c>
+      <c r="T29" s="12" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="30" outlineLevel="1" hidden="0">
       <c r="A30" s="7" t="s">
@@ -13952,10 +14520,10 @@
         <v>49</v>
       </c>
       <c r="G30" s="34" t="n">
-        <v>0.454545454545455</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I30" s="34" t="n">
         <v>0.857142857142857</v>
@@ -13970,10 +14538,10 @@
         <v>28</v>
       </c>
       <c r="M30" s="34" t="n">
-        <v>0.428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="N30" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="O30" s="34" t="n">
         <v>0.904761904761905</v>
@@ -13988,10 +14556,10 @@
         <v>21</v>
       </c>
       <c r="S30" s="34" t="n">
-        <v>0.5</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="T30" s="12" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" outlineLevel="1" hidden="0">
@@ -14013,8 +14581,12 @@
       <c r="F31" t="n">
         <v>142</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31"/>
+      <c r="G31" s="34" t="n">
+        <v>0.929577464788732</v>
+      </c>
+      <c r="H31" t="n">
+        <v>142</v>
+      </c>
       <c r="I31" s="34" t="n">
         <v>0.923076923076923</v>
       </c>
@@ -14027,8 +14599,12 @@
       <c r="L31" t="n">
         <v>65</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31"/>
+      <c r="M31" s="34" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="N31" t="n">
+        <v>65</v>
+      </c>
       <c r="O31" s="34" t="n">
         <v>0.935064935064935</v>
       </c>
@@ -14041,8 +14617,12 @@
       <c r="R31" t="n">
         <v>77</v>
       </c>
-      <c r="S31" s="34"/>
-      <c r="T31" s="12"/>
+      <c r="S31" s="34" t="n">
+        <v>0.935064935064935</v>
+      </c>
+      <c r="T31" s="12" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" outlineLevel="1" hidden="0">
       <c r="A32" s="7" t="s">
@@ -14063,8 +14643,12 @@
       <c r="F32" t="n">
         <v>104</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32"/>
+      <c r="G32" s="34" t="n">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="H32" t="n">
+        <v>104</v>
+      </c>
       <c r="I32" s="34" t="n">
         <v>0.702127659574468</v>
       </c>
@@ -14077,8 +14661,12 @@
       <c r="L32" t="n">
         <v>47</v>
       </c>
-      <c r="M32" s="34"/>
-      <c r="N32"/>
+      <c r="M32" s="34" t="n">
+        <v>0.702127659574468</v>
+      </c>
+      <c r="N32" t="n">
+        <v>47</v>
+      </c>
       <c r="O32" s="34" t="n">
         <v>0.719298245614035</v>
       </c>
@@ -14091,8 +14679,12 @@
       <c r="R32" t="n">
         <v>57</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="12"/>
+      <c r="S32" s="34" t="n">
+        <v>0.719298245614035</v>
+      </c>
+      <c r="T32" s="12" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" outlineLevel="1" hidden="0">
       <c r="A33" s="7" t="s">
@@ -14113,8 +14705,12 @@
       <c r="F33" t="n">
         <v>144</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33"/>
+      <c r="G33" s="34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>144</v>
+      </c>
       <c r="I33" s="34" t="n">
         <v>0.72972972972973</v>
       </c>
@@ -14127,8 +14723,12 @@
       <c r="L33" t="n">
         <v>74</v>
       </c>
-      <c r="M33" s="34"/>
-      <c r="N33"/>
+      <c r="M33" s="34" t="n">
+        <v>0.72972972972973</v>
+      </c>
+      <c r="N33" t="n">
+        <v>74</v>
+      </c>
       <c r="O33" s="34" t="n">
         <v>0.771428571428571</v>
       </c>
@@ -14141,8 +14741,12 @@
       <c r="R33" t="n">
         <v>70</v>
       </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="12"/>
+      <c r="S33" s="34" t="n">
+        <v>0.771428571428571</v>
+      </c>
+      <c r="T33" s="12" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="34" outlineLevel="1" hidden="0">
       <c r="A34" s="7" t="s">
@@ -14164,10 +14768,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="34" t="n">
-        <v>0.0285714285714286</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="I34" s="34" t="n">
         <v>0.590909090909091</v>
@@ -14182,10 +14786,10 @@
         <v>44</v>
       </c>
       <c r="M34" s="34" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="N34" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="O34" s="34" t="n">
         <v>0.6</v>
@@ -14199,8 +14803,12 @@
       <c r="R34" t="n">
         <v>40</v>
       </c>
-      <c r="S34" s="34"/>
-      <c r="T34" s="12"/>
+      <c r="S34" s="34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T34" s="12" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" outlineLevel="1" hidden="0">
       <c r="A35" s="7" t="s">
@@ -14222,10 +14830,10 @@
         <v>177</v>
       </c>
       <c r="G35" s="34" t="n">
-        <v>0.04</v>
+        <v>0.858757062146893</v>
       </c>
       <c r="H35" t="n">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="I35" s="34" t="n">
         <v>0.831168831168831</v>
@@ -14240,10 +14848,10 @@
         <v>77</v>
       </c>
       <c r="M35" s="34" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="N35" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O35" s="34" t="n">
         <v>0.89</v>
@@ -14257,8 +14865,12 @@
       <c r="R35" t="n">
         <v>100</v>
       </c>
-      <c r="S35" s="34"/>
-      <c r="T35" s="12"/>
+      <c r="S35" s="34" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="T35" s="12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" outlineLevel="1" hidden="0">
       <c r="A36" s="7" t="s">
@@ -14280,10 +14892,10 @@
         <v>134</v>
       </c>
       <c r="G36" s="34" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.619402985074627</v>
       </c>
       <c r="H36" t="n">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="I36" s="34" t="n">
         <v>0.568965517241379</v>
@@ -14297,8 +14909,12 @@
       <c r="L36" t="n">
         <v>58</v>
       </c>
-      <c r="M36" s="34"/>
-      <c r="N36"/>
+      <c r="M36" s="34" t="n">
+        <v>0.568965517241379</v>
+      </c>
+      <c r="N36" t="n">
+        <v>58</v>
+      </c>
       <c r="O36" s="34" t="n">
         <v>0.684210526315789</v>
       </c>
@@ -14312,10 +14928,10 @@
         <v>76</v>
       </c>
       <c r="S36" s="34" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.657894736842105</v>
       </c>
       <c r="T36" s="12" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" outlineLevel="1" hidden="0">
@@ -14337,8 +14953,12 @@
       <c r="F37" t="n">
         <v>140</v>
       </c>
-      <c r="G37" s="34"/>
-      <c r="H37"/>
+      <c r="G37" s="34" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H37" t="n">
+        <v>140</v>
+      </c>
       <c r="I37" s="34" t="n">
         <v>0.740740740740741</v>
       </c>
@@ -14351,8 +14971,12 @@
       <c r="L37" t="n">
         <v>54</v>
       </c>
-      <c r="M37" s="34"/>
-      <c r="N37"/>
+      <c r="M37" s="34" t="n">
+        <v>0.740740740740741</v>
+      </c>
+      <c r="N37" t="n">
+        <v>54</v>
+      </c>
       <c r="O37" s="34" t="n">
         <v>0.918604651162791</v>
       </c>
@@ -14365,8 +14989,12 @@
       <c r="R37" t="n">
         <v>86</v>
       </c>
-      <c r="S37" s="34"/>
-      <c r="T37" s="12"/>
+      <c r="S37" s="34" t="n">
+        <v>0.918604651162791</v>
+      </c>
+      <c r="T37" s="12" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38" outlineLevel="1" hidden="0">
       <c r="A38" s="7" t="s">
@@ -14388,10 +15016,10 @@
         <v>97</v>
       </c>
       <c r="G38" s="34" t="n">
-        <v>0.0882352941176471</v>
+        <v>0.649484536082474</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I38" s="34" t="n">
         <v>0.644444444444444</v>
@@ -14406,10 +15034,10 @@
         <v>45</v>
       </c>
       <c r="M38" s="34" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="N38" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="O38" s="34" t="n">
         <v>0.711538461538462</v>
@@ -14424,10 +15052,10 @@
         <v>52</v>
       </c>
       <c r="S38" s="34" t="n">
-        <v>0.117647058823529</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="T38" s="12" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" outlineLevel="1" hidden="0">
@@ -14449,8 +15077,12 @@
       <c r="F39" t="n">
         <v>136</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39"/>
+      <c r="G39" s="34" t="n">
+        <v>0.477941176470588</v>
+      </c>
+      <c r="H39" t="n">
+        <v>136</v>
+      </c>
       <c r="I39" s="34" t="n">
         <v>0.308641975308642</v>
       </c>
@@ -14463,8 +15095,12 @@
       <c r="L39" t="n">
         <v>81</v>
       </c>
-      <c r="M39" s="34"/>
-      <c r="N39"/>
+      <c r="M39" s="34" t="n">
+        <v>0.308641975308642</v>
+      </c>
+      <c r="N39" t="n">
+        <v>81</v>
+      </c>
       <c r="O39" s="34" t="n">
         <v>0.727272727272727</v>
       </c>
@@ -14477,8 +15113,12 @@
       <c r="R39" t="n">
         <v>55</v>
       </c>
-      <c r="S39" s="34"/>
-      <c r="T39" s="12"/>
+      <c r="S39" s="34" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="T39" s="12" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" outlineLevel="1" hidden="0">
       <c r="A40" s="7" t="s">
@@ -14500,10 +15140,10 @@
         <v>107</v>
       </c>
       <c r="G40" s="34" t="n">
-        <v>0.272727272727273</v>
+        <v>0.691588785046729</v>
       </c>
       <c r="H40" t="n">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I40" s="34" t="n">
         <v>0.732142857142857</v>
@@ -14518,10 +15158,10 @@
         <v>56</v>
       </c>
       <c r="M40" s="34" t="n">
-        <v>0.166666666666667</v>
+        <v>0.678571428571428</v>
       </c>
       <c r="N40" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O40" s="34" t="n">
         <v>0.823529411764706</v>
@@ -14536,10 +15176,10 @@
         <v>51</v>
       </c>
       <c r="S40" s="34" t="n">
-        <v>0.4</v>
+        <v>0.705882352941176</v>
       </c>
       <c r="T40" s="12" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" outlineLevel="1" hidden="0">
@@ -14562,10 +15202,10 @@
         <v>81</v>
       </c>
       <c r="G41" s="34" t="n">
-        <v>0.155555555555556</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H41" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I41" s="34" t="n">
         <v>0.538461538461538</v>
@@ -14580,10 +15220,10 @@
         <v>39</v>
       </c>
       <c r="M41" s="34" t="n">
-        <v>0.217391304347826</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="N41" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O41" s="34" t="n">
         <v>0.523809523809524</v>
@@ -14598,10 +15238,10 @@
         <v>42</v>
       </c>
       <c r="S41" s="34" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="T41" s="12" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" outlineLevel="1" hidden="0">
@@ -14624,10 +15264,10 @@
         <v>105</v>
       </c>
       <c r="G42" s="34" t="n">
-        <v>0.03125</v>
+        <v>0.695238095238095</v>
       </c>
       <c r="H42" t="n">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I42" s="34" t="n">
         <v>0.719298245614035</v>
@@ -14641,8 +15281,12 @@
       <c r="L42" t="n">
         <v>57</v>
       </c>
-      <c r="M42" s="34"/>
-      <c r="N42"/>
+      <c r="M42" s="34" t="n">
+        <v>0.719298245614035</v>
+      </c>
+      <c r="N42" t="n">
+        <v>57</v>
+      </c>
       <c r="O42" s="34" t="n">
         <v>0.6875</v>
       </c>
@@ -14656,10 +15300,10 @@
         <v>48</v>
       </c>
       <c r="S42" s="34" t="n">
-        <v>0.0625</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T42" s="12" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" outlineLevel="1" hidden="0">
@@ -14682,10 +15326,10 @@
         <v>183</v>
       </c>
       <c r="G43" s="34" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.765027322404372</v>
       </c>
       <c r="H43" t="n">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="I43" s="34" t="n">
         <v>0.80952380952381</v>
@@ -14700,10 +15344,10 @@
         <v>84</v>
       </c>
       <c r="M43" s="34" t="n">
-        <v>0.111111111111111</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="N43" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="O43" s="34" t="n">
         <v>0.747474747474748</v>
@@ -14717,8 +15361,12 @@
       <c r="R43" t="n">
         <v>99</v>
       </c>
-      <c r="S43" s="34"/>
-      <c r="T43" s="12"/>
+      <c r="S43" s="34" t="n">
+        <v>0.747474747474748</v>
+      </c>
+      <c r="T43" s="12" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="44" outlineLevel="1" hidden="0">
       <c r="A44" s="7" t="s">
@@ -14740,10 +15388,10 @@
         <v>108</v>
       </c>
       <c r="G44" s="34" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.592592592592593</v>
       </c>
       <c r="H44" t="n">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I44" s="34" t="n">
         <v>0.5</v>
@@ -14758,10 +15406,10 @@
         <v>56</v>
       </c>
       <c r="M44" s="34" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.482142857142857</v>
       </c>
       <c r="N44" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="O44" s="34" t="n">
         <v>0.769230769230769</v>
@@ -14776,10 +15424,10 @@
         <v>52</v>
       </c>
       <c r="S44" s="34" t="n">
-        <v>0.2</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="T44" s="12" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" outlineLevel="1" hidden="0">
@@ -14802,10 +15450,10 @@
         <v>119</v>
       </c>
       <c r="G45" s="34" t="n">
-        <v>0.217391304347826</v>
+        <v>0.61344537815126</v>
       </c>
       <c r="H45" t="n">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I45" s="34" t="n">
         <v>0.693548387096774</v>
@@ -14820,10 +15468,10 @@
         <v>62</v>
       </c>
       <c r="M45" s="34" t="n">
-        <v>0.208333333333333</v>
+        <v>0.612903225806452</v>
       </c>
       <c r="N45" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="O45" s="34" t="n">
         <v>0.701754385964912</v>
@@ -14838,10 +15486,10 @@
         <v>57</v>
       </c>
       <c r="S45" s="34" t="n">
-        <v>0.227272727272727</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="T45" s="12" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" outlineLevel="1" hidden="0">
@@ -14864,10 +15512,10 @@
         <v>77</v>
       </c>
       <c r="G46" s="34" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.532467532467533</v>
       </c>
       <c r="H46" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I46" s="34" t="n">
         <v>0.456521739130435</v>
@@ -14881,8 +15529,12 @@
       <c r="L46" t="n">
         <v>46</v>
       </c>
-      <c r="M46" s="34"/>
-      <c r="N46"/>
+      <c r="M46" s="34" t="n">
+        <v>0.456521739130435</v>
+      </c>
+      <c r="N46" t="n">
+        <v>46</v>
+      </c>
       <c r="O46" s="34" t="n">
         <v>0.67741935483871</v>
       </c>
@@ -14896,10 +15548,10 @@
         <v>31</v>
       </c>
       <c r="S46" s="34" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.645161290322581</v>
       </c>
       <c r="T46" s="12" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" outlineLevel="1" hidden="0">
@@ -14921,8 +15573,12 @@
       <c r="F47" t="n">
         <v>106</v>
       </c>
-      <c r="G47" s="34"/>
-      <c r="H47"/>
+      <c r="G47" s="34" t="n">
+        <v>0.716981132075472</v>
+      </c>
+      <c r="H47" t="n">
+        <v>106</v>
+      </c>
       <c r="I47" s="34" t="n">
         <v>0.612244897959184</v>
       </c>
@@ -14935,8 +15591,12 @@
       <c r="L47" t="n">
         <v>49</v>
       </c>
-      <c r="M47" s="34"/>
-      <c r="N47"/>
+      <c r="M47" s="34" t="n">
+        <v>0.612244897959184</v>
+      </c>
+      <c r="N47" t="n">
+        <v>49</v>
+      </c>
       <c r="O47" s="34" t="n">
         <v>0.807017543859649</v>
       </c>
@@ -14949,8 +15609,12 @@
       <c r="R47" t="n">
         <v>57</v>
       </c>
-      <c r="S47" s="34"/>
-      <c r="T47" s="12"/>
+      <c r="S47" s="34" t="n">
+        <v>0.807017543859649</v>
+      </c>
+      <c r="T47" s="12" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="48" outlineLevel="1" hidden="0">
       <c r="A48" s="8" t="s">
@@ -14971,8 +15635,12 @@
       <c r="F48" s="10" t="n">
         <v>107</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="33" t="n">
+        <v>0.850467289719626</v>
+      </c>
+      <c r="H48" s="10" t="n">
+        <v>107</v>
+      </c>
       <c r="I48" s="33" t="n">
         <v>0.763636363636364</v>
       </c>
@@ -14985,8 +15653,12 @@
       <c r="L48" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="M48" s="33"/>
-      <c r="N48" s="10"/>
+      <c r="M48" s="33" t="n">
+        <v>0.763636363636364</v>
+      </c>
+      <c r="N48" s="10" t="n">
+        <v>55</v>
+      </c>
       <c r="O48" s="33" t="n">
         <v>0.942307692307692</v>
       </c>
@@ -14999,8 +15671,12 @@
       <c r="R48" s="10" t="n">
         <v>52</v>
       </c>
-      <c r="S48" s="33"/>
-      <c r="T48" s="13"/>
+      <c r="S48" s="33" t="n">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="T48" s="13" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="C49" s="34"/>
@@ -15063,10 +15739,10 @@
         <v>256</v>
       </c>
       <c r="M51" s="32" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.70703125</v>
       </c>
       <c r="N51" s="9" t="n">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="O51" s="32" t="n">
         <v>0.823333333333333</v>
@@ -15081,10 +15757,10 @@
         <v>300</v>
       </c>
       <c r="S51" s="32" t="n">
-        <v>0.116666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="T51" s="11" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" outlineLevel="1" hidden="0">
@@ -15113,10 +15789,10 @@
         <v>196</v>
       </c>
       <c r="M52" s="34" t="n">
-        <v>0.072289156626506</v>
+        <v>0.576530612244898</v>
       </c>
       <c r="N52" t="n">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="O52" s="34" t="n">
         <v>0.717948717948718</v>
@@ -15131,10 +15807,10 @@
         <v>156</v>
       </c>
       <c r="S52" s="34" t="n">
-        <v>0.0638297872340425</v>
+        <v>0.698717948717949</v>
       </c>
       <c r="T52" s="12" t="n">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" outlineLevel="1" hidden="0">
@@ -15163,10 +15839,10 @@
         <v>1568</v>
       </c>
       <c r="M53" s="34" t="n">
-        <v>0.0843373493975904</v>
+        <v>0.735331632653061</v>
       </c>
       <c r="N53" t="n">
-        <v>415</v>
+        <v>1568</v>
       </c>
       <c r="O53" s="34" t="n">
         <v>0.832945285215367</v>
@@ -15181,10 +15857,10 @@
         <v>1717</v>
       </c>
       <c r="S53" s="34" t="n">
-        <v>0.114197530864198</v>
+        <v>0.811298776936517</v>
       </c>
       <c r="T53" s="12" t="n">
-        <v>324</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="54" outlineLevel="1" hidden="0">
@@ -15213,10 +15889,10 @@
         <v>96</v>
       </c>
       <c r="M54" s="33" t="n">
-        <v>0.131147540983607</v>
+        <v>0.364583333333333</v>
       </c>
       <c r="N54" s="10" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="O54" s="33" t="n">
         <v>0.663636363636364</v>
@@ -15231,10 +15907,10 @@
         <v>110</v>
       </c>
       <c r="S54" s="33" t="n">
-        <v>0.075</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="T54" s="13" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
@@ -15449,7 +16125,7 @@
         <v>29955</v>
       </c>
       <c r="E7" s="36" t="n">
-        <v>0.703955933900851</v>
+        <v>0.694808879986647</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>29955</v>
@@ -15461,7 +16137,7 @@
         <v>14508</v>
       </c>
       <c r="I7" s="36" t="n">
-        <v>0.566515026192446</v>
+        <v>0.557278742762614</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>14508</v>
@@ -15473,7 +16149,7 @@
         <v>15447</v>
       </c>
       <c r="M7" s="36" t="n">
-        <v>0.833042014630673</v>
+        <v>0.82397876610345</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>15447</v>
@@ -15519,7 +16195,7 @@
         <v>590</v>
       </c>
       <c r="E10" s="37" t="n">
-        <v>0.398305084745763</v>
+        <v>0.384745762711864</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>590</v>
@@ -15531,7 +16207,7 @@
         <v>281</v>
       </c>
       <c r="I10" s="37" t="n">
-        <v>0.323843416370107</v>
+        <v>0.298932384341637</v>
       </c>
       <c r="J10" s="9" t="n">
         <v>281</v>
@@ -15543,7 +16219,7 @@
         <v>309</v>
       </c>
       <c r="M10" s="37" t="n">
-        <v>0.466019417475728</v>
+        <v>0.462783171521036</v>
       </c>
       <c r="N10" s="11" t="n">
         <v>309</v>
@@ -15563,7 +16239,7 @@
         <v>15419</v>
       </c>
       <c r="E11" s="39" t="n">
-        <v>0.670601206303911</v>
+        <v>0.659316427783903</v>
       </c>
       <c r="F11" t="n">
         <v>15419</v>
@@ -15575,7 +16251,7 @@
         <v>7466</v>
       </c>
       <c r="I11" s="39" t="n">
-        <v>0.527323868202518</v>
+        <v>0.51754620948299</v>
       </c>
       <c r="J11" t="n">
         <v>7466</v>
@@ -15587,7 +16263,7 @@
         <v>7953</v>
       </c>
       <c r="M11" s="39" t="n">
-        <v>0.805104991826983</v>
+        <v>0.792405381617</v>
       </c>
       <c r="N11" s="12" t="n">
         <v>7953</v>
@@ -15607,7 +16283,7 @@
         <v>13946</v>
       </c>
       <c r="E12" s="38" t="n">
-        <v>0.753764520292557</v>
+        <v>0.747167646637029</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>13946</v>
@@ -15619,7 +16295,7 @@
         <v>6761</v>
       </c>
       <c r="I12" s="38" t="n">
-        <v>0.619878716166248</v>
+        <v>0.611891731992309</v>
       </c>
       <c r="J12" s="10" t="n">
         <v>6761</v>
@@ -15631,7 +16307,7 @@
         <v>7185</v>
       </c>
       <c r="M12" s="38" t="n">
-        <v>0.879749478079332</v>
+        <v>0.87446068197634</v>
       </c>
       <c r="N12" s="13" t="n">
         <v>7185</v>
@@ -15677,7 +16353,7 @@
         <v>825</v>
       </c>
       <c r="E15" s="37" t="n">
-        <v>0.758787878787879</v>
+        <v>0.741818181818182</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>825</v>
@@ -15689,7 +16365,7 @@
         <v>398</v>
       </c>
       <c r="I15" s="37" t="n">
-        <v>0.64572864321608</v>
+        <v>0.620603015075377</v>
       </c>
       <c r="J15" s="9" t="n">
         <v>398</v>
@@ -15701,7 +16377,7 @@
         <v>427</v>
       </c>
       <c r="M15" s="37" t="n">
-        <v>0.864168618266979</v>
+        <v>0.85480093676815</v>
       </c>
       <c r="N15" s="11" t="n">
         <v>427</v>
@@ -15765,7 +16441,7 @@
         <v>593</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>0.812816188870152</v>
+        <v>0.811129848229342</v>
       </c>
       <c r="F17" t="n">
         <v>593</v>
@@ -15789,7 +16465,7 @@
         <v>285</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>0.929824561403509</v>
+        <v>0.926315789473684</v>
       </c>
       <c r="N17" s="12" t="n">
         <v>285</v>
@@ -15809,7 +16485,7 @@
         <v>513</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>0.797270955165692</v>
+        <v>0.793372319688109</v>
       </c>
       <c r="F18" t="n">
         <v>513</v>
@@ -15821,7 +16497,7 @@
         <v>258</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>0.686046511627907</v>
+        <v>0.682170542635659</v>
       </c>
       <c r="J18" t="n">
         <v>258</v>
@@ -15833,7 +16509,7 @@
         <v>255</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>0.909803921568627</v>
+        <v>0.905882352941176</v>
       </c>
       <c r="N18" s="12" t="n">
         <v>255</v>
@@ -15853,7 +16529,7 @@
         <v>538</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>0.674721189591078</v>
+        <v>0.671003717472119</v>
       </c>
       <c r="F19" t="n">
         <v>538</v>
@@ -15865,7 +16541,7 @@
         <v>250</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>0.516</v>
+        <v>0.512</v>
       </c>
       <c r="J19" t="n">
         <v>250</v>
@@ -15877,7 +16553,7 @@
         <v>288</v>
       </c>
       <c r="M19" s="39" t="n">
-        <v>0.8125</v>
+        <v>0.809027777777778</v>
       </c>
       <c r="N19" s="12" t="n">
         <v>288</v>
@@ -15897,7 +16573,7 @@
         <v>1764</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>0.73015873015873</v>
+        <v>0.728458049886621</v>
       </c>
       <c r="F20" t="n">
         <v>1764</v>
@@ -15909,7 +16585,7 @@
         <v>831</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>0.567990373044525</v>
+        <v>0.565583634175692</v>
       </c>
       <c r="J20" t="n">
         <v>831</v>
@@ -15921,7 +16597,7 @@
         <v>933</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>0.87459807073955</v>
+        <v>0.873526259378349</v>
       </c>
       <c r="N20" s="12" t="n">
         <v>933</v>
@@ -15985,7 +16661,7 @@
         <v>641</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>0.84399375975039</v>
+        <v>0.842433697347894</v>
       </c>
       <c r="F22" t="n">
         <v>641</v>
@@ -15997,7 +16673,7 @@
         <v>308</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>0.681818181818182</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="J22" t="n">
         <v>308</v>
@@ -16029,7 +16705,7 @@
         <v>721</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>0.79750346740638</v>
+        <v>0.771151178918169</v>
       </c>
       <c r="F23" t="n">
         <v>721</v>
@@ -16041,7 +16717,7 @@
         <v>333</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>0.636636636636637</v>
+        <v>0.588588588588589</v>
       </c>
       <c r="J23" t="n">
         <v>333</v>
@@ -16053,7 +16729,7 @@
         <v>388</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>0.935567010309278</v>
+        <v>0.927835051546392</v>
       </c>
       <c r="N23" s="12" t="n">
         <v>388</v>
@@ -16161,7 +16837,7 @@
         <v>1289</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>0.7377812257564</v>
+        <v>0.69433669511249</v>
       </c>
       <c r="F26" t="n">
         <v>1289</v>
@@ -16173,7 +16849,7 @@
         <v>579</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>0.559585492227979</v>
+        <v>0.514680483592401</v>
       </c>
       <c r="J26" t="n">
         <v>579</v>
@@ -16185,7 +16861,7 @@
         <v>710</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>0.883098591549296</v>
+        <v>0.840845070422535</v>
       </c>
       <c r="N26" s="12" t="n">
         <v>710</v>
@@ -16249,7 +16925,7 @@
         <v>1242</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>0.624798711755233</v>
+        <v>0.607890499194847</v>
       </c>
       <c r="F28" t="n">
         <v>1242</v>
@@ -16261,7 +16937,7 @@
         <v>522</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>0.486590038314176</v>
+        <v>0.452107279693487</v>
       </c>
       <c r="J28" t="n">
         <v>522</v>
@@ -16273,7 +16949,7 @@
         <v>720</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>0.725</v>
+        <v>0.720833333333333</v>
       </c>
       <c r="N28" s="12" t="n">
         <v>720</v>
@@ -16337,7 +17013,7 @@
         <v>497</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>0.674044265593561</v>
+        <v>0.633802816901408</v>
       </c>
       <c r="F30" t="n">
         <v>497</v>
@@ -16349,7 +17025,7 @@
         <v>242</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>0.628099173553719</v>
+        <v>0.578512396694215</v>
       </c>
       <c r="J30" t="n">
         <v>242</v>
@@ -16361,7 +17037,7 @@
         <v>255</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>0.717647058823529</v>
+        <v>0.686274509803922</v>
       </c>
       <c r="N30" s="12" t="n">
         <v>255</v>
@@ -16469,7 +17145,7 @@
         <v>798</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>0.655388471177945</v>
+        <v>0.652882205513784</v>
       </c>
       <c r="F33" t="n">
         <v>798</v>
@@ -16481,7 +17157,7 @@
         <v>403</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>0.493796526054591</v>
+        <v>0.491315136476427</v>
       </c>
       <c r="J33" t="n">
         <v>403</v>
@@ -16493,7 +17169,7 @@
         <v>395</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>0.820253164556962</v>
+        <v>0.817721518987342</v>
       </c>
       <c r="N33" s="12" t="n">
         <v>395</v>
@@ -16557,7 +17233,7 @@
         <v>1529</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>0.716808371484631</v>
+        <v>0.715500327011118</v>
       </c>
       <c r="F35" t="n">
         <v>1529</v>
@@ -16569,7 +17245,7 @@
         <v>749</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>0.606141522029372</v>
+        <v>0.60347129506008</v>
       </c>
       <c r="J35" t="n">
         <v>749</v>
@@ -16601,7 +17277,7 @@
         <v>1019</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>0.576054955839058</v>
+        <v>0.573110893032385</v>
       </c>
       <c r="F36" t="n">
         <v>1019</v>
@@ -16613,7 +17289,7 @@
         <v>492</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>0.449186991869919</v>
+        <v>0.445121951219512</v>
       </c>
       <c r="J36" t="n">
         <v>492</v>
@@ -16625,7 +17301,7 @@
         <v>527</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>0.69449715370019</v>
+        <v>0.692599620493359</v>
       </c>
       <c r="N36" s="12" t="n">
         <v>527</v>
@@ -16733,7 +17409,7 @@
         <v>730</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>0.435616438356164</v>
+        <v>0.434246575342466</v>
       </c>
       <c r="F39" t="n">
         <v>730</v>
@@ -16757,7 +17433,7 @@
         <v>324</v>
       </c>
       <c r="M39" s="39" t="n">
-        <v>0.645061728395062</v>
+        <v>0.641975308641975</v>
       </c>
       <c r="N39" s="12" t="n">
         <v>324</v>
@@ -16777,7 +17453,7 @@
         <v>771</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>0.649805447470817</v>
+        <v>0.594033722438392</v>
       </c>
       <c r="F40" t="n">
         <v>771</v>
@@ -16789,7 +17465,7 @@
         <v>389</v>
       </c>
       <c r="I40" s="39" t="n">
-        <v>0.475578406169666</v>
+        <v>0.424164524421594</v>
       </c>
       <c r="J40" t="n">
         <v>389</v>
@@ -16801,7 +17477,7 @@
         <v>382</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>0.827225130890052</v>
+        <v>0.767015706806283</v>
       </c>
       <c r="N40" s="12" t="n">
         <v>382</v>
@@ -16821,7 +17497,7 @@
         <v>690</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>0.543478260869565</v>
+        <v>0.528985507246377</v>
       </c>
       <c r="F41" t="n">
         <v>690</v>
@@ -16833,7 +17509,7 @@
         <v>316</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>0.329113924050633</v>
+        <v>0.325949367088608</v>
       </c>
       <c r="J41" t="n">
         <v>316</v>
@@ -16845,7 +17521,7 @@
         <v>374</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>0.724598930481283</v>
+        <v>0.700534759358289</v>
       </c>
       <c r="N41" s="12" t="n">
         <v>374</v>
@@ -16865,7 +17541,7 @@
         <v>919</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>0.608269858541893</v>
+        <v>0.607181719260065</v>
       </c>
       <c r="F42" t="n">
         <v>919</v>
@@ -16877,7 +17553,7 @@
         <v>478</v>
       </c>
       <c r="I42" s="39" t="n">
-        <v>0.50418410041841</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="J42" t="n">
         <v>478</v>
@@ -16953,7 +17629,7 @@
         <v>718</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>0.616991643454039</v>
+        <v>0.533426183844011</v>
       </c>
       <c r="F44" t="n">
         <v>718</v>
@@ -16965,7 +17641,7 @@
         <v>331</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>0.419939577039275</v>
+        <v>0.377643504531722</v>
       </c>
       <c r="J44" t="n">
         <v>331</v>
@@ -16977,7 +17653,7 @@
         <v>387</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>0.785529715762274</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N44" s="12" t="n">
         <v>387</v>
@@ -16997,7 +17673,7 @@
         <v>719</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>0.70653685674548</v>
+        <v>0.692628650904033</v>
       </c>
       <c r="F45" t="n">
         <v>719</v>
@@ -17009,7 +17685,7 @@
         <v>342</v>
       </c>
       <c r="I45" s="39" t="n">
-        <v>0.593567251461988</v>
+        <v>0.58187134502924</v>
       </c>
       <c r="J45" t="n">
         <v>342</v>
@@ -17021,7 +17697,7 @@
         <v>377</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>0.809018567639257</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="N45" s="12" t="n">
         <v>377</v>
@@ -17041,7 +17717,7 @@
         <v>610</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>0.560655737704918</v>
+        <v>0.557377049180328</v>
       </c>
       <c r="F46" t="n">
         <v>610</v>
@@ -17053,7 +17729,7 @@
         <v>304</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>0.417763157894737</v>
+        <v>0.411184210526316</v>
       </c>
       <c r="J46" t="n">
         <v>304</v>
@@ -17085,7 +17761,7 @@
         <v>699</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>0.600858369098712</v>
+        <v>0.599427753934192</v>
       </c>
       <c r="F47" t="n">
         <v>699</v>
@@ -17109,7 +17785,7 @@
         <v>379</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>0.736147757255937</v>
+        <v>0.733509234828496</v>
       </c>
       <c r="N47" s="12" t="n">
         <v>379</v>
@@ -17203,7 +17879,7 @@
         <v>1841</v>
       </c>
       <c r="I51" s="37" t="n">
-        <v>0.546985334057577</v>
+        <v>0.544812601846822</v>
       </c>
       <c r="J51" s="9" t="n">
         <v>1841</v>
@@ -17215,7 +17891,7 @@
         <v>1940</v>
       </c>
       <c r="M51" s="37" t="n">
-        <v>0.79020618556701</v>
+        <v>0.781958762886598</v>
       </c>
       <c r="N51" s="11" t="n">
         <v>1940</v>
@@ -17239,7 +17915,7 @@
         <v>1053</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>0.439696106362773</v>
+        <v>0.432098765432099</v>
       </c>
       <c r="J52" t="n">
         <v>1053</v>
@@ -17251,7 +17927,7 @@
         <v>1124</v>
       </c>
       <c r="M52" s="39" t="n">
-        <v>0.711743772241993</v>
+        <v>0.69661921708185</v>
       </c>
       <c r="N52" s="12" t="n">
         <v>1124</v>
@@ -17275,7 +17951,7 @@
         <v>11210</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>0.587778768956289</v>
+        <v>0.578233719892953</v>
       </c>
       <c r="J53" t="n">
         <v>11210</v>
@@ -17287,7 +17963,7 @@
         <v>11898</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>0.860900991763321</v>
+        <v>0.853252647503782</v>
       </c>
       <c r="N53" s="12" t="n">
         <v>11898</v>
@@ -17311,7 +17987,7 @@
         <v>404</v>
       </c>
       <c r="I54" s="38" t="n">
-        <v>0.396039603960396</v>
+        <v>0.358910891089109</v>
       </c>
       <c r="J54" s="10" t="n">
         <v>404</v>
@@ -17323,7 +17999,7 @@
         <v>485</v>
       </c>
       <c r="M54" s="38" t="n">
-        <v>0.602061855670103</v>
+        <v>0.569072164948454</v>
       </c>
       <c r="N54" s="13" t="n">
         <v>485</v>
@@ -17393,8 +18069,6 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
     </row>
     <row r="2">
       <c r="C2" s="2" t="s">
@@ -17403,32 +18077,26 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
     </row>
     <row r="3">
       <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4">
       <c r="C4" s="2" t="s">
@@ -17444,17 +18112,13 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -17491,12 +18155,6 @@
         <v>12</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17515,8 +18173,6 @@
       <c r="J6" s="2"/>
       <c r="K6" s="40"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="2"/>
     </row>
     <row r="7" outlineLevel="1" hidden="0">
       <c r="A7" s="3" t="s">
@@ -17532,7 +18188,7 @@
         <v>5880</v>
       </c>
       <c r="E7" s="41" t="n">
-        <v>0.38469387755102</v>
+        <v>0.276020408163265</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>5880</v>
@@ -17544,21 +18200,15 @@
         <v>2855</v>
       </c>
       <c r="I7" s="41" t="n">
-        <v>0.0658493870402802</v>
+        <v>0.688595041322314</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2855</v>
+        <v>3025</v>
       </c>
       <c r="K7" s="41" t="n">
-        <v>0.688595041322314</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>3025</v>
-      </c>
-      <c r="M7" s="41" t="n">
-        <v>0.685619834710744</v>
-      </c>
-      <c r="N7" s="5" t="n">
+        <v>0.536528925619835</v>
+      </c>
+      <c r="L7" s="5" t="n">
         <v>3025</v>
       </c>
     </row>
@@ -17568,7 +18218,6 @@
       <c r="G8" s="44"/>
       <c r="I8" s="44"/>
       <c r="K8" s="44"/>
-      <c r="M8" s="44"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -17585,8 +18234,6 @@
       <c r="J9" s="2"/>
       <c r="K9" s="40"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="2"/>
     </row>
     <row r="10" outlineLevel="1" hidden="0">
       <c r="A10" s="6" t="s">
@@ -17602,7 +18249,7 @@
         <v>85</v>
       </c>
       <c r="E10" s="42" t="n">
-        <v>0.341176470588235</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>85</v>
@@ -17614,21 +18261,15 @@
         <v>27</v>
       </c>
       <c r="I10" s="42" t="n">
-        <v>0.222222222222222</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="K10" s="42" t="n">
-        <v>0.396551724137931</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="M10" s="42" t="n">
-        <v>0.396551724137931</v>
-      </c>
-      <c r="N10" s="11" t="n">
+        <v>0.293103448275862</v>
+      </c>
+      <c r="L10" s="11" t="n">
         <v>58</v>
       </c>
     </row>
@@ -17646,7 +18287,7 @@
         <v>2964</v>
       </c>
       <c r="E11" s="44" t="n">
-        <v>0.351889338731444</v>
+        <v>0.250337381916329</v>
       </c>
       <c r="F11" t="n">
         <v>2964</v>
@@ -17658,21 +18299,15 @@
         <v>1451</v>
       </c>
       <c r="I11" s="44" t="n">
-        <v>0.0551343900758098</v>
+        <v>0.639788499669531</v>
       </c>
       <c r="J11" t="n">
-        <v>1451</v>
+        <v>1513</v>
       </c>
       <c r="K11" s="44" t="n">
-        <v>0.639788499669531</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1513</v>
-      </c>
-      <c r="M11" s="44" t="n">
-        <v>0.636483807005948</v>
-      </c>
-      <c r="N11" s="12" t="n">
+        <v>0.490416391275611</v>
+      </c>
+      <c r="L11" s="12" t="n">
         <v>1513</v>
       </c>
     </row>
@@ -17690,7 +18325,7 @@
         <v>2831</v>
       </c>
       <c r="E12" s="43" t="n">
-        <v>0.420346167432003</v>
+        <v>0.305192511480042</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>2831</v>
@@ -17702,21 +18337,15 @@
         <v>1377</v>
       </c>
       <c r="I12" s="43" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.751031636863824</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>1377</v>
+        <v>1454</v>
       </c>
       <c r="K12" s="43" t="n">
-        <v>0.751031636863824</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>1454</v>
-      </c>
-      <c r="M12" s="43" t="n">
-        <v>0.74828060522696</v>
-      </c>
-      <c r="N12" s="13" t="n">
+        <v>0.594222833562586</v>
+      </c>
+      <c r="L12" s="13" t="n">
         <v>1454</v>
       </c>
     </row>
@@ -17726,7 +18355,6 @@
       <c r="G13" s="44"/>
       <c r="I13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="M13" s="44"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -17743,8 +18371,6 @@
       <c r="J14" s="2"/>
       <c r="K14" s="40"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="2"/>
     </row>
     <row r="15" outlineLevel="1" hidden="0">
       <c r="A15" s="6" t="s">
@@ -17760,7 +18386,7 @@
         <v>207</v>
       </c>
       <c r="E15" s="42" t="n">
-        <v>0.318840579710145</v>
+        <v>0.270531400966184</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>207</v>
@@ -17772,21 +18398,15 @@
         <v>99</v>
       </c>
       <c r="I15" s="42" t="n">
-        <v>0.0202020202020202</v>
+        <v>0.592592592592593</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K15" s="42" t="n">
-        <v>0.592592592592593</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>108</v>
-      </c>
-      <c r="M15" s="42" t="n">
-        <v>0.592592592592593</v>
-      </c>
-      <c r="N15" s="11" t="n">
+        <v>0.518518518518518</v>
+      </c>
+      <c r="L15" s="11" t="n">
         <v>108</v>
       </c>
     </row>
@@ -17804,7 +18424,7 @@
         <v>220</v>
       </c>
       <c r="E16" s="44" t="n">
-        <v>0.513636363636364</v>
+        <v>0.445454545454545</v>
       </c>
       <c r="F16" t="n">
         <v>220</v>
@@ -17816,21 +18436,15 @@
         <v>99</v>
       </c>
       <c r="I16" s="44" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.892561983471074</v>
       </c>
       <c r="J16" t="n">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="K16" s="44" t="n">
-        <v>0.892561983471074</v>
-      </c>
-      <c r="L16" t="n">
-        <v>121</v>
-      </c>
-      <c r="M16" s="44" t="n">
-        <v>0.892561983471074</v>
-      </c>
-      <c r="N16" s="12" t="n">
+        <v>0.809917355371901</v>
+      </c>
+      <c r="L16" s="12" t="n">
         <v>121</v>
       </c>
     </row>
@@ -17848,7 +18462,7 @@
         <v>162</v>
       </c>
       <c r="E17" s="44" t="n">
-        <v>0.444444444444444</v>
+        <v>0.364197530864197</v>
       </c>
       <c r="F17" t="n">
         <v>162</v>
@@ -17860,21 +18474,15 @@
         <v>82</v>
       </c>
       <c r="I17" s="44" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.85</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K17" s="44" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="L17" t="n">
-        <v>80</v>
-      </c>
-      <c r="M17" s="44" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N17" s="12" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="L17" s="12" t="n">
         <v>80</v>
       </c>
     </row>
@@ -17892,7 +18500,7 @@
         <v>127</v>
       </c>
       <c r="E18" s="44" t="n">
-        <v>0.590551181102362</v>
+        <v>0.417322834645669</v>
       </c>
       <c r="F18" t="n">
         <v>127</v>
@@ -17904,21 +18512,15 @@
         <v>50</v>
       </c>
       <c r="I18" s="44" t="n">
-        <v>0.26</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K18" s="44" t="n">
-        <v>0.818181818181818</v>
-      </c>
-      <c r="L18" t="n">
-        <v>77</v>
-      </c>
-      <c r="M18" s="44" t="n">
-        <v>0.805194805194805</v>
-      </c>
-      <c r="N18" s="12" t="n">
+        <v>0.688311688311688</v>
+      </c>
+      <c r="L18" s="12" t="n">
         <v>77</v>
       </c>
     </row>
@@ -17936,7 +18538,7 @@
         <v>110</v>
       </c>
       <c r="E19" s="44" t="n">
-        <v>0.490909090909091</v>
+        <v>0.309090909090909</v>
       </c>
       <c r="F19" t="n">
         <v>110</v>
@@ -17948,21 +18550,15 @@
         <v>48</v>
       </c>
       <c r="I19" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="J19" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K19" s="44" t="n">
-        <v>0.806451612903226</v>
-      </c>
-      <c r="L19" t="n">
-        <v>62</v>
-      </c>
-      <c r="M19" s="44" t="n">
-        <v>0.806451612903226</v>
-      </c>
-      <c r="N19" s="12" t="n">
+        <v>0.548387096774194</v>
+      </c>
+      <c r="L19" s="12" t="n">
         <v>62</v>
       </c>
     </row>
@@ -17980,7 +18576,7 @@
         <v>339</v>
       </c>
       <c r="E20" s="44" t="n">
-        <v>0.36283185840708</v>
+        <v>0.23598820058997</v>
       </c>
       <c r="F20" t="n">
         <v>339</v>
@@ -17992,21 +18588,15 @@
         <v>173</v>
       </c>
       <c r="I20" s="44" t="n">
-        <v>0.0404624277456647</v>
+        <v>0.698795180722892</v>
       </c>
       <c r="J20" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K20" s="44" t="n">
-        <v>0.698795180722892</v>
-      </c>
-      <c r="L20" t="n">
-        <v>166</v>
-      </c>
-      <c r="M20" s="44" t="n">
-        <v>0.698795180722892</v>
-      </c>
-      <c r="N20" s="12" t="n">
+        <v>0.481927710843373</v>
+      </c>
+      <c r="L20" s="12" t="n">
         <v>166</v>
       </c>
     </row>
@@ -18024,7 +18614,7 @@
         <v>374</v>
       </c>
       <c r="E21" s="44" t="n">
-        <v>0.494652406417112</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="F21" t="n">
         <v>374</v>
@@ -18036,21 +18626,15 @@
         <v>171</v>
       </c>
       <c r="I21" s="44" t="n">
-        <v>0.12280701754386</v>
+        <v>0.807881773399015</v>
       </c>
       <c r="J21" t="n">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="K21" s="44" t="n">
-        <v>0.807881773399015</v>
-      </c>
-      <c r="L21" t="n">
-        <v>203</v>
-      </c>
-      <c r="M21" s="44" t="n">
-        <v>0.807881773399015</v>
-      </c>
-      <c r="N21" s="12" t="n">
+        <v>0.586206896551724</v>
+      </c>
+      <c r="L21" s="12" t="n">
         <v>203</v>
       </c>
     </row>
@@ -18068,7 +18652,7 @@
         <v>159</v>
       </c>
       <c r="E22" s="44" t="n">
-        <v>0.566037735849057</v>
+        <v>0.509433962264151</v>
       </c>
       <c r="F22" t="n">
         <v>159</v>
@@ -18080,21 +18664,15 @@
         <v>77</v>
       </c>
       <c r="I22" s="44" t="n">
-        <v>0.103896103896104</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K22" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>82</v>
-      </c>
-      <c r="M22" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="12" t="n">
+        <v>0.98780487804878</v>
+      </c>
+      <c r="L22" s="12" t="n">
         <v>82</v>
       </c>
     </row>
@@ -18112,7 +18690,7 @@
         <v>128</v>
       </c>
       <c r="E23" s="44" t="n">
-        <v>0.4609375</v>
+        <v>0.4453125</v>
       </c>
       <c r="F23" t="n">
         <v>128</v>
@@ -18123,18 +18701,16 @@
       <c r="H23" t="n">
         <v>51</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23"/>
+      <c r="I23" s="44" t="n">
+        <v>0.766233766233766</v>
+      </c>
+      <c r="J23" t="n">
+        <v>77</v>
+      </c>
       <c r="K23" s="44" t="n">
-        <v>0.766233766233766</v>
-      </c>
-      <c r="L23" t="n">
-        <v>77</v>
-      </c>
-      <c r="M23" s="44" t="n">
-        <v>0.766233766233766</v>
-      </c>
-      <c r="N23" s="12" t="n">
+        <v>0.74025974025974</v>
+      </c>
+      <c r="L23" s="12" t="n">
         <v>77</v>
       </c>
     </row>
@@ -18152,7 +18728,7 @@
         <v>214</v>
       </c>
       <c r="E24" s="44" t="n">
-        <v>0.38785046728972</v>
+        <v>0.294392523364486</v>
       </c>
       <c r="F24" t="n">
         <v>214</v>
@@ -18164,21 +18740,15 @@
         <v>116</v>
       </c>
       <c r="I24" s="44" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="J24" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K24" s="44" t="n">
-        <v>0.826530612244898</v>
-      </c>
-      <c r="L24" t="n">
-        <v>98</v>
-      </c>
-      <c r="M24" s="44" t="n">
-        <v>0.826530612244898</v>
-      </c>
-      <c r="N24" s="12" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="L24" s="12" t="n">
         <v>98</v>
       </c>
     </row>
@@ -18196,7 +18766,7 @@
         <v>128</v>
       </c>
       <c r="E25" s="44" t="n">
-        <v>0.421875</v>
+        <v>0.3828125</v>
       </c>
       <c r="F25" t="n">
         <v>128</v>
@@ -18208,21 +18778,15 @@
         <v>48</v>
       </c>
       <c r="I25" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="J25" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K25" s="44" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L25" t="n">
-        <v>80</v>
-      </c>
-      <c r="M25" s="44" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N25" s="12" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="L25" s="12" t="n">
         <v>80</v>
       </c>
     </row>
@@ -18240,7 +18804,7 @@
         <v>231</v>
       </c>
       <c r="E26" s="44" t="n">
-        <v>0.467532467532468</v>
+        <v>0.29004329004329</v>
       </c>
       <c r="F26" t="n">
         <v>231</v>
@@ -18252,21 +18816,15 @@
         <v>88</v>
       </c>
       <c r="I26" s="44" t="n">
-        <v>0.0681818181818182</v>
+        <v>0.72027972027972</v>
       </c>
       <c r="J26" t="n">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="K26" s="44" t="n">
-        <v>0.72027972027972</v>
-      </c>
-      <c r="L26" t="n">
-        <v>143</v>
-      </c>
-      <c r="M26" s="44" t="n">
-        <v>0.713286713286713</v>
-      </c>
-      <c r="N26" s="12" t="n">
+        <v>0.468531468531469</v>
+      </c>
+      <c r="L26" s="12" t="n">
         <v>143</v>
       </c>
     </row>
@@ -18284,7 +18842,7 @@
         <v>126</v>
       </c>
       <c r="E27" s="44" t="n">
-        <v>0.365079365079365</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="F27" t="n">
         <v>126</v>
@@ -18296,21 +18854,15 @@
         <v>56</v>
       </c>
       <c r="I27" s="44" t="n">
-        <v>0.107142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="J27" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K27" s="44" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="L27" t="n">
-        <v>70</v>
-      </c>
-      <c r="M27" s="44" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="N27" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L27" s="12" t="n">
         <v>70</v>
       </c>
     </row>
@@ -18328,7 +18880,7 @@
         <v>175</v>
       </c>
       <c r="E28" s="44" t="n">
-        <v>0.411428571428571</v>
+        <v>0.217142857142857</v>
       </c>
       <c r="F28" t="n">
         <v>175</v>
@@ -18340,21 +18892,15 @@
         <v>68</v>
       </c>
       <c r="I28" s="44" t="n">
-        <v>0.147058823529412</v>
+        <v>0.579439252336449</v>
       </c>
       <c r="J28" t="n">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="K28" s="44" t="n">
-        <v>0.579439252336449</v>
-      </c>
-      <c r="L28" t="n">
-        <v>107</v>
-      </c>
-      <c r="M28" s="44" t="n">
-        <v>0.579439252336449</v>
-      </c>
-      <c r="N28" s="12" t="n">
+        <v>0.355140186915888</v>
+      </c>
+      <c r="L28" s="12" t="n">
         <v>107</v>
       </c>
     </row>
@@ -18372,7 +18918,7 @@
         <v>252</v>
       </c>
       <c r="E29" s="44" t="n">
-        <v>0.369047619047619</v>
+        <v>0.313492063492063</v>
       </c>
       <c r="F29" t="n">
         <v>252</v>
@@ -18384,21 +18930,15 @@
         <v>144</v>
       </c>
       <c r="I29" s="44" t="n">
-        <v>0.0208333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="K29" s="44" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>108</v>
-      </c>
-      <c r="M29" s="44" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N29" s="12" t="n">
+        <v>0.731481481481481</v>
+      </c>
+      <c r="L29" s="12" t="n">
         <v>108</v>
       </c>
     </row>
@@ -18416,7 +18956,7 @@
         <v>80</v>
       </c>
       <c r="E30" s="44" t="n">
-        <v>0.475</v>
+        <v>0.2</v>
       </c>
       <c r="F30" t="n">
         <v>80</v>
@@ -18428,21 +18968,15 @@
         <v>34</v>
       </c>
       <c r="I30" s="44" t="n">
-        <v>0.205882352941176</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="J30" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K30" s="44" t="n">
-        <v>0.673913043478261</v>
-      </c>
-      <c r="L30" t="n">
-        <v>46</v>
-      </c>
-      <c r="M30" s="44" t="n">
-        <v>0.673913043478261</v>
-      </c>
-      <c r="N30" s="12" t="n">
+        <v>0.347826086956522</v>
+      </c>
+      <c r="L30" s="12" t="n">
         <v>46</v>
       </c>
     </row>
@@ -18460,7 +18994,7 @@
         <v>174</v>
       </c>
       <c r="E31" s="44" t="n">
-        <v>0.425287356321839</v>
+        <v>0.339080459770115</v>
       </c>
       <c r="F31" t="n">
         <v>174</v>
@@ -18472,21 +19006,15 @@
         <v>63</v>
       </c>
       <c r="I31" s="44" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.612612612612613</v>
       </c>
       <c r="J31" t="n">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="K31" s="44" t="n">
-        <v>0.612612612612613</v>
-      </c>
-      <c r="L31" t="n">
-        <v>111</v>
-      </c>
-      <c r="M31" s="44" t="n">
-        <v>0.612612612612613</v>
-      </c>
-      <c r="N31" s="12" t="n">
+        <v>0.531531531531532</v>
+      </c>
+      <c r="L31" s="12" t="n">
         <v>111</v>
       </c>
     </row>
@@ -18504,7 +19032,7 @@
         <v>166</v>
       </c>
       <c r="E32" s="44" t="n">
-        <v>0.289156626506024</v>
+        <v>0.228915662650602</v>
       </c>
       <c r="F32" t="n">
         <v>166</v>
@@ -18516,21 +19044,15 @@
         <v>94</v>
       </c>
       <c r="I32" s="44" t="n">
-        <v>0.0212765957446809</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="J32" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="K32" s="44" t="n">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="L32" t="n">
-        <v>72</v>
-      </c>
-      <c r="M32" s="44" t="n">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="N32" s="12" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="L32" s="12" t="n">
         <v>72</v>
       </c>
     </row>
@@ -18548,7 +19070,7 @@
         <v>143</v>
       </c>
       <c r="E33" s="44" t="n">
-        <v>0.307692307692308</v>
+        <v>0.251748251748252</v>
       </c>
       <c r="F33" t="n">
         <v>143</v>
@@ -18560,21 +19082,15 @@
         <v>80</v>
       </c>
       <c r="I33" s="44" t="n">
-        <v>0.025</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K33" s="44" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L33" t="n">
-        <v>63</v>
-      </c>
-      <c r="M33" s="44" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N33" s="12" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="L33" s="12" t="n">
         <v>63</v>
       </c>
     </row>
@@ -18592,7 +19108,7 @@
         <v>126</v>
       </c>
       <c r="E34" s="44" t="n">
-        <v>0.341269841269841</v>
+        <v>0.23015873015873</v>
       </c>
       <c r="F34" t="n">
         <v>126</v>
@@ -18604,21 +19120,15 @@
         <v>68</v>
       </c>
       <c r="I34" s="44" t="n">
-        <v>0.102941176470588</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="J34" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K34" s="44" t="n">
-        <v>0.620689655172414</v>
-      </c>
-      <c r="L34" t="n">
-        <v>58</v>
-      </c>
-      <c r="M34" s="44" t="n">
-        <v>0.620689655172414</v>
-      </c>
-      <c r="N34" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="12" t="n">
         <v>58</v>
       </c>
     </row>
@@ -18636,7 +19146,7 @@
         <v>315</v>
       </c>
       <c r="E35" s="44" t="n">
-        <v>0.33015873015873</v>
+        <v>0.187301587301587</v>
       </c>
       <c r="F35" t="n">
         <v>315</v>
@@ -18648,21 +19158,15 @@
         <v>163</v>
       </c>
       <c r="I35" s="44" t="n">
-        <v>0.0858895705521472</v>
+        <v>0.598684210526316</v>
       </c>
       <c r="J35" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K35" s="44" t="n">
-        <v>0.598684210526316</v>
-      </c>
-      <c r="L35" t="n">
-        <v>152</v>
-      </c>
-      <c r="M35" s="44" t="n">
-        <v>0.592105263157895</v>
-      </c>
-      <c r="N35" s="12" t="n">
+        <v>0.388157894736842</v>
+      </c>
+      <c r="L35" s="12" t="n">
         <v>152</v>
       </c>
     </row>
@@ -18680,7 +19184,7 @@
         <v>207</v>
       </c>
       <c r="E36" s="44" t="n">
-        <v>0.193236714975845</v>
+        <v>0.1256038647343</v>
       </c>
       <c r="F36" t="n">
         <v>207</v>
@@ -18692,21 +19196,15 @@
         <v>113</v>
       </c>
       <c r="I36" s="44" t="n">
-        <v>0.0707964601769911</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="J36" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="K36" s="44" t="n">
-        <v>0.340425531914894</v>
-      </c>
-      <c r="L36" t="n">
-        <v>94</v>
-      </c>
-      <c r="M36" s="44" t="n">
-        <v>0.340425531914894</v>
-      </c>
-      <c r="N36" s="12" t="n">
+        <v>0.276595744680851</v>
+      </c>
+      <c r="L36" s="12" t="n">
         <v>94</v>
       </c>
     </row>
@@ -18724,7 +19222,7 @@
         <v>108</v>
       </c>
       <c r="E37" s="44" t="n">
-        <v>0.388888888888889</v>
+        <v>0.324074074074074</v>
       </c>
       <c r="F37" t="n">
         <v>108</v>
@@ -18736,21 +19234,15 @@
         <v>42</v>
       </c>
       <c r="I37" s="44" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="J37" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K37" s="44" t="n">
-        <v>0.590909090909091</v>
-      </c>
-      <c r="L37" t="n">
-        <v>66</v>
-      </c>
-      <c r="M37" s="44" t="n">
-        <v>0.590909090909091</v>
-      </c>
-      <c r="N37" s="12" t="n">
+        <v>0.53030303030303</v>
+      </c>
+      <c r="L37" s="12" t="n">
         <v>66</v>
       </c>
     </row>
@@ -18768,7 +19260,7 @@
         <v>146</v>
       </c>
       <c r="E38" s="44" t="n">
-        <v>0.356164383561644</v>
+        <v>0.26027397260274</v>
       </c>
       <c r="F38" t="n">
         <v>146</v>
@@ -18780,21 +19272,15 @@
         <v>87</v>
       </c>
       <c r="I38" s="44" t="n">
-        <v>0.0574712643678161</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="J38" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="K38" s="44" t="n">
-        <v>0.796610169491525</v>
-      </c>
-      <c r="L38" t="n">
-        <v>59</v>
-      </c>
-      <c r="M38" s="44" t="n">
-        <v>0.796610169491525</v>
-      </c>
-      <c r="N38" s="12" t="n">
+        <v>0.644067796610169</v>
+      </c>
+      <c r="L38" s="12" t="n">
         <v>59</v>
       </c>
     </row>
@@ -18812,7 +19298,7 @@
         <v>106</v>
       </c>
       <c r="E39" s="44" t="n">
-        <v>0.452830188679245</v>
+        <v>0.226415094339623</v>
       </c>
       <c r="F39" t="n">
         <v>106</v>
@@ -18824,21 +19310,15 @@
         <v>45</v>
       </c>
       <c r="I39" s="44" t="n">
-        <v>0.111111111111111</v>
+        <v>0.704918032786885</v>
       </c>
       <c r="J39" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="K39" s="44" t="n">
-        <v>0.704918032786885</v>
-      </c>
-      <c r="L39" t="n">
-        <v>61</v>
-      </c>
-      <c r="M39" s="44" t="n">
-        <v>0.704918032786885</v>
-      </c>
-      <c r="N39" s="12" t="n">
+        <v>0.39344262295082</v>
+      </c>
+      <c r="L39" s="12" t="n">
         <v>61</v>
       </c>
     </row>
@@ -18856,7 +19336,7 @@
         <v>135</v>
       </c>
       <c r="E40" s="44" t="n">
-        <v>0.407407407407407</v>
+        <v>0.17037037037037</v>
       </c>
       <c r="F40" t="n">
         <v>135</v>
@@ -18868,21 +19348,15 @@
         <v>56</v>
       </c>
       <c r="I40" s="44" t="n">
-        <v>0.125</v>
+        <v>0.658227848101266</v>
       </c>
       <c r="J40" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K40" s="44" t="n">
-        <v>0.658227848101266</v>
-      </c>
-      <c r="L40" t="n">
-        <v>79</v>
-      </c>
-      <c r="M40" s="44" t="n">
-        <v>0.607594936708861</v>
-      </c>
-      <c r="N40" s="12" t="n">
+        <v>0.291139240506329</v>
+      </c>
+      <c r="L40" s="12" t="n">
         <v>79</v>
       </c>
     </row>
@@ -18900,7 +19374,7 @@
         <v>140</v>
       </c>
       <c r="E41" s="44" t="n">
-        <v>0.228571428571429</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="F41" t="n">
         <v>140</v>
@@ -18912,21 +19386,15 @@
         <v>84</v>
       </c>
       <c r="I41" s="44" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.553571428571428</v>
       </c>
       <c r="J41" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="K41" s="44" t="n">
-        <v>0.553571428571428</v>
-      </c>
-      <c r="L41" t="n">
-        <v>56</v>
-      </c>
-      <c r="M41" s="44" t="n">
-        <v>0.553571428571428</v>
-      </c>
-      <c r="N41" s="12" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="L41" s="12" t="n">
         <v>56</v>
       </c>
     </row>
@@ -18944,7 +19412,7 @@
         <v>217</v>
       </c>
       <c r="E42" s="44" t="n">
-        <v>0.244239631336406</v>
+        <v>0.188940092165899</v>
       </c>
       <c r="F42" t="n">
         <v>217</v>
@@ -18956,21 +19424,15 @@
         <v>134</v>
       </c>
       <c r="I42" s="44" t="n">
-        <v>0.0373134328358209</v>
+        <v>0.578313253012048</v>
       </c>
       <c r="J42" t="n">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="K42" s="44" t="n">
-        <v>0.578313253012048</v>
-      </c>
-      <c r="L42" t="n">
-        <v>83</v>
-      </c>
-      <c r="M42" s="44" t="n">
-        <v>0.578313253012048</v>
-      </c>
-      <c r="N42" s="12" t="n">
+        <v>0.493975903614458</v>
+      </c>
+      <c r="L42" s="12" t="n">
         <v>83</v>
       </c>
     </row>
@@ -18988,25 +19450,23 @@
         <v>234</v>
       </c>
       <c r="E43" s="44" t="n">
-        <v>0.333333333333333</v>
+        <v>0.290598290598291</v>
       </c>
       <c r="F43" t="n">
         <v>234</v>
       </c>
       <c r="G43" s="44"/>
       <c r="H43"/>
-      <c r="I43" s="44"/>
-      <c r="J43"/>
+      <c r="I43" s="44" t="n">
+        <v>0.735849056603774</v>
+      </c>
+      <c r="J43" t="n">
+        <v>106</v>
+      </c>
       <c r="K43" s="44" t="n">
-        <v>0.735849056603774</v>
-      </c>
-      <c r="L43" t="n">
-        <v>106</v>
-      </c>
-      <c r="M43" s="44" t="n">
-        <v>0.735849056603774</v>
-      </c>
-      <c r="N43" s="12" t="n">
+        <v>0.641509433962264</v>
+      </c>
+      <c r="L43" s="12" t="n">
         <v>106</v>
       </c>
     </row>
@@ -19024,7 +19484,7 @@
         <v>104</v>
       </c>
       <c r="E44" s="44" t="n">
-        <v>0.298076923076923</v>
+        <v>0.211538461538462</v>
       </c>
       <c r="F44" t="n">
         <v>104</v>
@@ -19036,21 +19496,15 @@
         <v>47</v>
       </c>
       <c r="I44" s="44" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="J44" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K44" s="44" t="n">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="L44" t="n">
-        <v>57</v>
-      </c>
-      <c r="M44" s="44" t="n">
-        <v>0.508771929824561</v>
-      </c>
-      <c r="N44" s="12" t="n">
+        <v>0.385964912280702</v>
+      </c>
+      <c r="L44" s="12" t="n">
         <v>57</v>
       </c>
     </row>
@@ -19068,7 +19522,7 @@
         <v>116</v>
       </c>
       <c r="E45" s="44" t="n">
-        <v>0.336206896551724</v>
+        <v>0.198275862068966</v>
       </c>
       <c r="F45" t="n">
         <v>116</v>
@@ -19080,21 +19534,15 @@
         <v>59</v>
       </c>
       <c r="I45" s="44" t="n">
-        <v>0.11864406779661</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="J45" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K45" s="44" t="n">
-        <v>0.56140350877193</v>
-      </c>
-      <c r="L45" t="n">
-        <v>57</v>
-      </c>
-      <c r="M45" s="44" t="n">
-        <v>0.56140350877193</v>
-      </c>
-      <c r="N45" s="12" t="n">
+        <v>0.403508771929825</v>
+      </c>
+      <c r="L45" s="12" t="n">
         <v>57</v>
       </c>
     </row>
@@ -19112,7 +19560,7 @@
         <v>115</v>
       </c>
       <c r="E46" s="44" t="n">
-        <v>0.339130434782609</v>
+        <v>0.182608695652174</v>
       </c>
       <c r="F46" t="n">
         <v>115</v>
@@ -19124,21 +19572,15 @@
         <v>55</v>
       </c>
       <c r="I46" s="44" t="n">
-        <v>0.0181818181818182</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="J46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K46" s="44" t="n">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>60</v>
-      </c>
-      <c r="M46" s="44" t="n">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="N46" s="12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L46" s="12" t="n">
         <v>60</v>
       </c>
     </row>
@@ -19156,7 +19598,7 @@
         <v>134</v>
       </c>
       <c r="E47" s="44" t="n">
-        <v>0.328358208955224</v>
+        <v>0.223880597014925</v>
       </c>
       <c r="F47" t="n">
         <v>134</v>
@@ -19168,21 +19610,15 @@
         <v>59</v>
       </c>
       <c r="I47" s="44" t="n">
-        <v>0.101694915254237</v>
+        <v>0.506666666666667</v>
       </c>
       <c r="J47" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="K47" s="44" t="n">
-        <v>0.506666666666667</v>
-      </c>
-      <c r="L47" t="n">
-        <v>75</v>
-      </c>
-      <c r="M47" s="44" t="n">
-        <v>0.506666666666667</v>
-      </c>
-      <c r="N47" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L47" s="12" t="n">
         <v>75</v>
       </c>
     </row>
@@ -19200,7 +19636,7 @@
         <v>162</v>
       </c>
       <c r="E48" s="43" t="n">
-        <v>0.401234567901235</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="F48" s="10" t="n">
         <v>162</v>
@@ -19212,21 +19648,15 @@
         <v>74</v>
       </c>
       <c r="I48" s="43" t="n">
-        <v>0.0675675675675676</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="J48" s="10" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K48" s="43" t="n">
-        <v>0.681818181818182</v>
-      </c>
-      <c r="L48" s="10" t="n">
-        <v>88</v>
-      </c>
-      <c r="M48" s="43" t="n">
-        <v>0.681818181818182</v>
-      </c>
-      <c r="N48" s="13" t="n">
+        <v>0.568181818181818</v>
+      </c>
+      <c r="L48" s="13" t="n">
         <v>88</v>
       </c>
     </row>
@@ -19236,7 +19666,6 @@
       <c r="G49" s="44"/>
       <c r="I49" s="44"/>
       <c r="K49" s="44"/>
-      <c r="M49" s="44"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -19253,8 +19682,6 @@
       <c r="J50" s="2"/>
       <c r="K50" s="40"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="2"/>
     </row>
     <row r="51" outlineLevel="1" hidden="0">
       <c r="A51" s="6" t="s">
@@ -19274,21 +19701,15 @@
         <v>329</v>
       </c>
       <c r="I51" s="42" t="n">
-        <v>0.0364741641337386</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="J51" s="9" t="n">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="K51" s="42" t="n">
-        <v>0.557692307692308</v>
-      </c>
-      <c r="L51" s="9" t="n">
-        <v>364</v>
-      </c>
-      <c r="M51" s="42" t="n">
-        <v>0.546703296703297</v>
-      </c>
-      <c r="N51" s="11" t="n">
+        <v>0.398351648351648</v>
+      </c>
+      <c r="L51" s="11" t="n">
         <v>364</v>
       </c>
     </row>
@@ -19310,21 +19731,15 @@
         <v>204</v>
       </c>
       <c r="I52" s="44" t="n">
-        <v>0.0147058823529412</v>
+        <v>0.515555555555556</v>
       </c>
       <c r="J52" t="n">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K52" s="44" t="n">
-        <v>0.515555555555556</v>
-      </c>
-      <c r="L52" t="n">
-        <v>225</v>
-      </c>
-      <c r="M52" s="44" t="n">
-        <v>0.515555555555556</v>
-      </c>
-      <c r="N52" s="12" t="n">
+        <v>0.382222222222222</v>
+      </c>
+      <c r="L52" s="12" t="n">
         <v>225</v>
       </c>
     </row>
@@ -19346,21 +19761,15 @@
         <v>2287</v>
       </c>
       <c r="I53" s="44" t="n">
-        <v>0.0734586794927853</v>
+        <v>0.733390119250426</v>
       </c>
       <c r="J53" t="n">
-        <v>2287</v>
+        <v>2348</v>
       </c>
       <c r="K53" s="44" t="n">
-        <v>0.733390119250426</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2348</v>
-      </c>
-      <c r="M53" s="44" t="n">
-        <v>0.731686541737649</v>
-      </c>
-      <c r="N53" s="12" t="n">
+        <v>0.586456558773424</v>
+      </c>
+      <c r="L53" s="12" t="n">
         <v>2348</v>
       </c>
     </row>
@@ -19382,21 +19791,15 @@
         <v>35</v>
       </c>
       <c r="I54" s="43" t="n">
-        <v>0.142857142857143</v>
+        <v>0.477272727272727</v>
       </c>
       <c r="J54" s="10" t="n">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="K54" s="43" t="n">
-        <v>0.477272727272727</v>
-      </c>
-      <c r="L54" s="10" t="n">
-        <v>88</v>
-      </c>
-      <c r="M54" s="43" t="n">
-        <v>0.465909090909091</v>
-      </c>
-      <c r="N54" s="13" t="n">
+        <v>0.170454545454545</v>
+      </c>
+      <c r="L54" s="13" t="n">
         <v>88</v>
       </c>
     </row>
@@ -19406,7 +19809,6 @@
       <c r="G55" s="44"/>
       <c r="I55" s="44"/>
       <c r="K55" s="44"/>
-      <c r="M55" s="44"/>
     </row>
     <row r="56">
       <c r="C56" s="44"/>
@@ -19414,27 +19816,24 @@
       <c r="G56" s="44"/>
       <c r="I56" s="44"/>
       <c r="K56" s="44"/>
-      <c r="M56" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A50:L50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19583,7 +19982,7 @@
         <v>3178</v>
       </c>
       <c r="E7" s="46" t="n">
-        <v>0.271554436752675</v>
+        <v>0.220893643801133</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3178</v>
@@ -19601,7 +20000,7 @@
         <v>1570</v>
       </c>
       <c r="K7" s="46" t="n">
-        <v>0.54968152866242</v>
+        <v>0.447133757961783</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>1570</v>
@@ -19644,7 +20043,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="47" t="n">
-        <v>0.114285714285714</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>35</v>
@@ -19658,7 +20057,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="47" t="n">
-        <v>0.19047619047619</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>21</v>
@@ -19678,7 +20077,7 @@
         <v>1578</v>
       </c>
       <c r="E11" s="49" t="n">
-        <v>0.256020278833967</v>
+        <v>0.20659062103929</v>
       </c>
       <c r="F11" t="n">
         <v>1578</v>
@@ -19696,7 +20095,7 @@
         <v>796</v>
       </c>
       <c r="K11" s="49" t="n">
-        <v>0.507537688442211</v>
+        <v>0.409547738693467</v>
       </c>
       <c r="L11" s="12" t="n">
         <v>796</v>
@@ -19716,7 +20115,7 @@
         <v>1565</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>0.29073482428115</v>
+        <v>0.23961661341853</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>1565</v>
@@ -19734,7 +20133,7 @@
         <v>753</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>0.604249667994688</v>
+        <v>0.49800796812749</v>
       </c>
       <c r="L12" s="13" t="n">
         <v>753</v>
@@ -19777,7 +20176,7 @@
         <v>77</v>
       </c>
       <c r="E15" s="47" t="n">
-        <v>0.168831168831169</v>
+        <v>0.103896103896104</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>77</v>
@@ -19795,7 +20194,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="47" t="n">
-        <v>0.448275862068966</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="L15" s="11" t="n">
         <v>29</v>
@@ -19815,7 +20214,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="49" t="n">
-        <v>0.320754716981132</v>
+        <v>0.283018867924528</v>
       </c>
       <c r="F16" t="n">
         <v>106</v>
@@ -19833,7 +20232,7 @@
         <v>56</v>
       </c>
       <c r="K16" s="49" t="n">
-        <v>0.607142857142857</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="L16" s="12" t="n">
         <v>56</v>
@@ -19853,7 +20252,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="49" t="n">
-        <v>0.484375</v>
+        <v>0.40625</v>
       </c>
       <c r="F17" t="n">
         <v>64</v>
@@ -19871,7 +20270,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="49" t="n">
-        <v>0.815789473684211</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="L17" s="12" t="n">
         <v>38</v>
@@ -19891,7 +20290,7 @@
         <v>92</v>
       </c>
       <c r="E18" s="49" t="n">
-        <v>0.489130434782609</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="F18" t="n">
         <v>92</v>
@@ -19909,7 +20308,7 @@
         <v>52</v>
       </c>
       <c r="K18" s="49" t="n">
-        <v>0.865384615384615</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="L18" s="12" t="n">
         <v>52</v>
@@ -19929,7 +20328,7 @@
         <v>88</v>
       </c>
       <c r="E19" s="49" t="n">
-        <v>0.329545454545455</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="F19" t="n">
         <v>88</v>
@@ -19947,7 +20346,7 @@
         <v>46</v>
       </c>
       <c r="K19" s="49" t="n">
-        <v>0.630434782608696</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="L19" s="12" t="n">
         <v>46</v>
@@ -19967,7 +20366,7 @@
         <v>182</v>
       </c>
       <c r="E20" s="49" t="n">
-        <v>0.274725274725275</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="F20" t="n">
         <v>182</v>
@@ -19985,7 +20384,7 @@
         <v>76</v>
       </c>
       <c r="K20" s="49" t="n">
-        <v>0.657894736842105</v>
+        <v>0.552631578947368</v>
       </c>
       <c r="L20" s="12" t="n">
         <v>76</v>
@@ -20005,7 +20404,7 @@
         <v>191</v>
       </c>
       <c r="E21" s="49" t="n">
-        <v>0.392670157068063</v>
+        <v>0.324607329842932</v>
       </c>
       <c r="F21" t="n">
         <v>191</v>
@@ -20023,7 +20422,7 @@
         <v>94</v>
       </c>
       <c r="K21" s="49" t="n">
-        <v>0.797872340425532</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="L21" s="12" t="n">
         <v>94</v>
@@ -20043,7 +20442,7 @@
         <v>105</v>
       </c>
       <c r="E22" s="49" t="n">
-        <v>0.571428571428572</v>
+        <v>0.561904761904762</v>
       </c>
       <c r="F22" t="n">
         <v>105</v>
@@ -20061,7 +20460,7 @@
         <v>66</v>
       </c>
       <c r="K22" s="49" t="n">
-        <v>0.909090909090909</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="L22" s="12" t="n">
         <v>66</v>
@@ -20081,7 +20480,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="49" t="n">
-        <v>0.215686274509804</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="F23" t="n">
         <v>51</v>
@@ -20099,7 +20498,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="49" t="n">
-        <v>0.423076923076923</v>
+        <v>0.346153846153846</v>
       </c>
       <c r="L23" s="12" t="n">
         <v>26</v>
@@ -20119,7 +20518,7 @@
         <v>144</v>
       </c>
       <c r="E24" s="49" t="n">
-        <v>0.236111111111111</v>
+        <v>0.180555555555556</v>
       </c>
       <c r="F24" t="n">
         <v>144</v>
@@ -20137,7 +20536,7 @@
         <v>61</v>
       </c>
       <c r="K24" s="49" t="n">
-        <v>0.557377049180328</v>
+        <v>0.426229508196721</v>
       </c>
       <c r="L24" s="12" t="n">
         <v>61</v>
@@ -20195,7 +20594,7 @@
         <v>124</v>
       </c>
       <c r="E26" s="49" t="n">
-        <v>0.25</v>
+        <v>0.161290322580645</v>
       </c>
       <c r="F26" t="n">
         <v>124</v>
@@ -20213,7 +20612,7 @@
         <v>76</v>
       </c>
       <c r="K26" s="49" t="n">
-        <v>0.407894736842105</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="L26" s="12" t="n">
         <v>76</v>
@@ -20233,7 +20632,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="49" t="n">
-        <v>0.317073170731707</v>
+        <v>0.219512195121951</v>
       </c>
       <c r="F27" t="n">
         <v>41</v>
@@ -20251,7 +20650,7 @@
         <v>22</v>
       </c>
       <c r="K27" s="49" t="n">
-        <v>0.590909090909091</v>
+        <v>0.409090909090909</v>
       </c>
       <c r="L27" s="12" t="n">
         <v>22</v>
@@ -20271,7 +20670,7 @@
         <v>65</v>
       </c>
       <c r="E28" s="49" t="n">
-        <v>0.246153846153846</v>
+        <v>0.169230769230769</v>
       </c>
       <c r="F28" t="n">
         <v>65</v>
@@ -20285,7 +20684,7 @@
         <v>37</v>
       </c>
       <c r="K28" s="49" t="n">
-        <v>0.432432432432432</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="L28" s="12" t="n">
         <v>37</v>
@@ -20305,7 +20704,7 @@
         <v>138</v>
       </c>
       <c r="E29" s="49" t="n">
-        <v>0.41304347826087</v>
+        <v>0.405797101449275</v>
       </c>
       <c r="F29" t="n">
         <v>138</v>
@@ -20323,7 +20722,7 @@
         <v>67</v>
       </c>
       <c r="K29" s="49" t="n">
-        <v>0.850746268656716</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="L29" s="12" t="n">
         <v>67</v>
@@ -20343,7 +20742,7 @@
         <v>46</v>
       </c>
       <c r="E30" s="49" t="n">
-        <v>0.304347826086957</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="F30" t="n">
         <v>46</v>
@@ -20361,7 +20760,7 @@
         <v>25</v>
       </c>
       <c r="K30" s="49" t="n">
-        <v>0.56</v>
+        <v>0.36</v>
       </c>
       <c r="L30" s="12" t="n">
         <v>25</v>
@@ -20381,7 +20780,7 @@
         <v>118</v>
       </c>
       <c r="E31" s="49" t="n">
-        <v>0.305084745762712</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="F31" t="n">
         <v>118</v>
@@ -20399,7 +20798,7 @@
         <v>73</v>
       </c>
       <c r="K31" s="49" t="n">
-        <v>0.493150684931507</v>
+        <v>0.465753424657534</v>
       </c>
       <c r="L31" s="12" t="n">
         <v>73</v>
@@ -20419,7 +20818,7 @@
         <v>113</v>
       </c>
       <c r="E32" s="49" t="n">
-        <v>0.185840707964602</v>
+        <v>0.15929203539823</v>
       </c>
       <c r="F32" t="n">
         <v>113</v>
@@ -20437,7 +20836,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="49" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="L32" s="12" t="n">
         <v>50</v>
@@ -20491,7 +20890,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="49" t="n">
-        <v>0.285714285714286</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="F34" t="n">
         <v>42</v>
@@ -20505,7 +20904,7 @@
         <v>23</v>
       </c>
       <c r="K34" s="49" t="n">
-        <v>0.521739130434783</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="L34" s="12" t="n">
         <v>23</v>
@@ -20525,7 +20924,7 @@
         <v>171</v>
       </c>
       <c r="E35" s="49" t="n">
-        <v>0.198830409356725</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="F35" t="n">
         <v>171</v>
@@ -20543,7 +20942,7 @@
         <v>65</v>
       </c>
       <c r="K35" s="49" t="n">
-        <v>0.523076923076923</v>
+        <v>0.415384615384615</v>
       </c>
       <c r="L35" s="12" t="n">
         <v>65</v>
@@ -20563,7 +20962,7 @@
         <v>107</v>
       </c>
       <c r="E36" s="49" t="n">
-        <v>0.0934579439252336</v>
+        <v>0.0747663551401869</v>
       </c>
       <c r="F36" t="n">
         <v>107</v>
@@ -20581,7 +20980,7 @@
         <v>42</v>
       </c>
       <c r="K36" s="49" t="n">
-        <v>0.238095238095238</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="L36" s="12" t="n">
         <v>42</v>
@@ -20601,7 +21000,7 @@
         <v>84</v>
       </c>
       <c r="E37" s="49" t="n">
-        <v>0.261904761904762</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F37" t="n">
         <v>84</v>
@@ -20615,7 +21014,7 @@
         <v>53</v>
       </c>
       <c r="K37" s="49" t="n">
-        <v>0.415094339622641</v>
+        <v>0.30188679245283</v>
       </c>
       <c r="L37" s="12" t="n">
         <v>53</v>
@@ -20635,7 +21034,7 @@
         <v>71</v>
       </c>
       <c r="E38" s="49" t="n">
-        <v>0.23943661971831</v>
+        <v>0.140845070422535</v>
       </c>
       <c r="F38" t="n">
         <v>71</v>
@@ -20649,7 +21048,7 @@
         <v>27</v>
       </c>
       <c r="K38" s="49" t="n">
-        <v>0.62962962962963</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="L38" s="12" t="n">
         <v>27</v>
@@ -20669,7 +21068,7 @@
         <v>42</v>
       </c>
       <c r="E39" s="49" t="n">
-        <v>0.30952380952381</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F39" t="n">
         <v>42</v>
@@ -20687,7 +21086,7 @@
         <v>29</v>
       </c>
       <c r="K39" s="49" t="n">
-        <v>0.448275862068966</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="L39" s="12" t="n">
         <v>29</v>
@@ -20707,7 +21106,7 @@
         <v>66</v>
       </c>
       <c r="E40" s="49" t="n">
-        <v>0.121212121212121</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="F40" t="n">
         <v>66</v>
@@ -20725,7 +21124,7 @@
         <v>33</v>
       </c>
       <c r="K40" s="49" t="n">
-        <v>0.242424242424242</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="L40" s="12" t="n">
         <v>33</v>
@@ -20745,7 +21144,7 @@
         <v>78</v>
       </c>
       <c r="E41" s="49" t="n">
-        <v>0.205128205128205</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="F41" t="n">
         <v>78</v>
@@ -20763,7 +21162,7 @@
         <v>38</v>
       </c>
       <c r="K41" s="49" t="n">
-        <v>0.421052631578947</v>
+        <v>0.394736842105263</v>
       </c>
       <c r="L41" s="12" t="n">
         <v>38</v>
@@ -20783,7 +21182,7 @@
         <v>129</v>
       </c>
       <c r="E42" s="49" t="n">
-        <v>0.209302325581395</v>
+        <v>0.178294573643411</v>
       </c>
       <c r="F42" t="n">
         <v>129</v>
@@ -20801,7 +21200,7 @@
         <v>63</v>
       </c>
       <c r="K42" s="49" t="n">
-        <v>0.428571428571429</v>
+        <v>0.365079365079365</v>
       </c>
       <c r="L42" s="12" t="n">
         <v>63</v>
@@ -20821,7 +21220,7 @@
         <v>114</v>
       </c>
       <c r="E43" s="49" t="n">
-        <v>0.157894736842105</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="F43" t="n">
         <v>114</v>
@@ -20839,7 +21238,7 @@
         <v>47</v>
       </c>
       <c r="K43" s="49" t="n">
-        <v>0.382978723404255</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="L43" s="12" t="n">
         <v>47</v>
@@ -20859,7 +21258,7 @@
         <v>62</v>
       </c>
       <c r="E44" s="49" t="n">
-        <v>0.290322580645161</v>
+        <v>0.17741935483871</v>
       </c>
       <c r="F44" t="n">
         <v>62</v>
@@ -20873,7 +21272,7 @@
         <v>29</v>
       </c>
       <c r="K44" s="49" t="n">
-        <v>0.620689655172414</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="L44" s="12" t="n">
         <v>29</v>
@@ -20893,7 +21292,7 @@
         <v>62</v>
       </c>
       <c r="E45" s="49" t="n">
-        <v>0.17741935483871</v>
+        <v>0.129032258064516</v>
       </c>
       <c r="F45" t="n">
         <v>62</v>
@@ -20911,7 +21310,7 @@
         <v>34</v>
       </c>
       <c r="K45" s="49" t="n">
-        <v>0.323529411764706</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="L45" s="12" t="n">
         <v>34</v>
@@ -20931,7 +21330,7 @@
         <v>111</v>
       </c>
       <c r="E46" s="49" t="n">
-        <v>0.198198198198198</v>
+        <v>0.126126126126126</v>
       </c>
       <c r="F46" t="n">
         <v>111</v>
@@ -20949,7 +21348,7 @@
         <v>42</v>
       </c>
       <c r="K46" s="49" t="n">
-        <v>0.523809523809524</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L46" s="12" t="n">
         <v>42</v>
@@ -20969,7 +21368,7 @@
         <v>76</v>
       </c>
       <c r="E47" s="49" t="n">
-        <v>0.184210526315789</v>
+        <v>0.171052631578947</v>
       </c>
       <c r="F47" t="n">
         <v>76</v>
@@ -20987,7 +21386,7 @@
         <v>42</v>
       </c>
       <c r="K47" s="49" t="n">
-        <v>0.333333333333333</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="L47" s="12" t="n">
         <v>42</v>
@@ -21007,7 +21406,7 @@
         <v>74</v>
       </c>
       <c r="E48" s="48" t="n">
-        <v>0.243243243243243</v>
+        <v>0.148648648648649</v>
       </c>
       <c r="F48" s="10" t="n">
         <v>74</v>
@@ -21021,7 +21420,7 @@
         <v>33</v>
       </c>
       <c r="K48" s="48" t="n">
-        <v>0.545454545454545</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L48" s="13" t="n">
         <v>33</v>
@@ -21074,7 +21473,7 @@
         <v>169</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>0.420118343195266</v>
+        <v>0.289940828402367</v>
       </c>
       <c r="L51" s="11" t="n">
         <v>169</v>
@@ -21104,7 +21503,7 @@
         <v>89</v>
       </c>
       <c r="K52" s="49" t="n">
-        <v>0.426966292134831</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="L52" s="12" t="n">
         <v>89</v>
@@ -21134,7 +21533,7 @@
         <v>1282</v>
       </c>
       <c r="K53" s="49" t="n">
-        <v>0.585803432137285</v>
+        <v>0.487519500780031</v>
       </c>
       <c r="L53" s="12" t="n">
         <v>1282</v>
@@ -21160,7 +21559,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>0.1</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="L54" s="13" t="n">
         <v>30</v>
